--- a/modified_variables_file.xlsx
+++ b/modified_variables_file.xlsx
@@ -157,732 +157,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>pib</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.29704549431321087"/>
-                  <c:y val="-8.8646106736657918E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$H$18:$H$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$G$18:$G$80</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>119348.21424077044</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125126.32036160388</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128645.77495307969</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>141732.69044454599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>127132.28112469544</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>131831.67141360854</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>138473.57647509291</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>151997.47098660312</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135593.03714640398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140734.41132912389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>147975.39601032983</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>162154.15551414233</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>142466.85763797181</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>147479.82166771073</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>152924.9818553034</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>162841.33883901406</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>142871.53647526138</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>148238.14553112964</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>153542.51990888026</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>167963.79808472874</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>147811.68552463484</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>155186.83717420479</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159996.88084263631</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>177155.596458524</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>157762.78754916365</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>165412.01753875607</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>172652.39361992312</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>188800.80129215718</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>166996.88047309549</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>173577.62041998119</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>176900.49539803842</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>193940.00370888491</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>171244.7502044444</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>183008.77049865527</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>187401.36404294043</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>206284.11525395993</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>182282.85572104307</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>189638.37946240322</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>195558.67375589258</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>214109.09106066119</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>187841.99665840552</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>195888.91740175121</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>202886.98101223414</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>218074.10492760915</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>191782.13832631495</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>199892.39909796359</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>205900.37219315331</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>223914.09038256816</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>193740.59653470648</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>202490.25456262982</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>209366.66421509537</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>227058.48468756833</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>197176.58134961972</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>208084.23827760434</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>215046.21286935752</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>233292.96750341833</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>203021.42808284517</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>214490.6939274953</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>222545.87120284169</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>241371.21655283868</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>205500.29788914035</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>180494.32810719276</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>202513.5145748404</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E1A-42C5-AB6B-805E1DC47D2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="426781968"/>
-        <c:axId val="426781312"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="426781968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="426781312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="426781312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="426781968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -976,145 +250,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,7 +730,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1542,148 +816,148 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,7 +1302,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2073,251 +1347,341 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19294358974358974"/>
+                  <c:y val="0.43418880677504362"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="es-CO" sz="1800" baseline="0"/>
+                      <a:t>y = 0.7696x + 44.307</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="es-CO" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$81</c:f>
+              <c:f>Hoja1!$I$2:$I$81</c:f>
               <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>36951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37043</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37135</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37226</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37316</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37408</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37500</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37591</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37681</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37773</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37865</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37956</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38047</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38139</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38231</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38322</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38412</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38504</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38596</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38687</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38777</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38869</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38961</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39052</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39142</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39234</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39326</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39417</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39508</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39600</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39692</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39783</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39873</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39965</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40057</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40148</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40238</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40330</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40422</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40513</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40603</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40695</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40787</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40878</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40969</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41061</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41153</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41244</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41334</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41426</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41518</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41609</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41699</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41791</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41883</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41974</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42064</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42156</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42248</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42339</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42430</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42522</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42614</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42705</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42795</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42887</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42979</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43070</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43160</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43252</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43344</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43435</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43525</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43617</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43709</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43800</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43891</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43983</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>44075</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>44166</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,7 +1950,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2686,6 +2050,758 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="436803064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pib_serie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14219969378827646"/>
+                  <c:y val="-9.6875182268883059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:t>y = 1538.5x + 105743</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="2000"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$18:$H$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$18:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>119348.21424077044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125126.32036160388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128645.77495307969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141732.69044454599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127132.28112469544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131831.67141360854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138473.57647509291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151997.47098660312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135593.03714640398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140734.41132912389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147975.39601032983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162154.15551414233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142466.85763797181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147479.82166771073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152924.9818553034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162841.33883901406</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>142871.53647526138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148238.14553112964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153542.51990888026</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167963.79808472874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>147811.68552463484</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155186.83717420479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159996.88084263631</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>177155.596458524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>157762.78754916365</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>165412.01753875607</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172652.39361992312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>188800.80129215718</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166996.88047309549</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>173577.62041998119</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>176900.49539803842</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>193940.00370888491</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>171244.7502044444</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>183008.77049865527</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>187401.36404294043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>206284.11525395993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>182282.85572104307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>189638.37946240322</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>195558.67375589258</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>214109.09106066119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>187841.99665840552</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>195888.91740175121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>202886.98101223414</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>218074.10492760915</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>191782.13832631495</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>199892.39909796359</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>205900.37219315331</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>223914.09038256816</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>193740.59653470648</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>202490.25456262982</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>209366.66421509537</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>227058.48468756833</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>197176.58134961972</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>208084.23827760434</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>215046.21286935752</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>233292.96750341833</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>203021.42808284517</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>214490.6939274953</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>222545.87120284169</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>241371.21655283868</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>205500.29788914035</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>180494.32810719276</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>202513.5145748404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED7F-463E-9D83-247A67A001AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="425311632"/>
+        <c:axId val="425315896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="425311632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425315896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="425315896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425311632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4962,38 +5078,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -5018,6 +5102,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -5026,20 +5140,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5056,20 +5170,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5386,9 +5500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5437,13 +5551,13 @@
       </c>
       <c r="E2" s="3"/>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5458,13 +5572,13 @@
       </c>
       <c r="E3" s="3"/>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5479,13 +5593,13 @@
       </c>
       <c r="E4" s="3"/>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5500,13 +5614,13 @@
       </c>
       <c r="E5" s="3"/>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5521,13 +5635,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5542,13 +5656,13 @@
       </c>
       <c r="E7" s="3"/>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5563,13 +5677,13 @@
       </c>
       <c r="E8" s="3"/>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5584,13 +5698,13 @@
       </c>
       <c r="E9" s="3"/>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5608,13 +5722,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5632,13 +5746,13 @@
       </c>
       <c r="E11" s="3"/>
       <c r="H11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5656,13 +5770,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="H12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5680,13 +5794,13 @@
       </c>
       <c r="E13" s="3"/>
       <c r="H13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5704,13 +5818,13 @@
       </c>
       <c r="E14" s="3"/>
       <c r="H14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5728,13 +5842,13 @@
       </c>
       <c r="E15" s="3"/>
       <c r="H15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5752,13 +5866,13 @@
       </c>
       <c r="E16" s="3"/>
       <c r="H16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5776,13 +5890,13 @@
       </c>
       <c r="E17" s="3"/>
       <c r="H17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5803,13 +5917,13 @@
         <v>119348.21424077044</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5830,13 +5944,13 @@
         <v>125126.32036160388</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5857,13 +5971,13 @@
         <v>128645.77495307969</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5884,13 +5998,13 @@
         <v>141732.69044454599</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5911,13 +6025,13 @@
         <v>127132.28112469544</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5938,13 +6052,13 @@
         <v>131831.67141360854</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5965,13 +6079,13 @@
         <v>138473.57647509291</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5992,13 +6106,13 @@
         <v>151997.47098660312</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -6019,13 +6133,13 @@
         <v>135593.03714640398</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -6046,13 +6160,13 @@
         <v>140734.41132912389</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6073,13 +6187,13 @@
         <v>147975.39601032983</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6100,13 +6214,13 @@
         <v>162154.15551414233</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J29">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6127,13 +6241,13 @@
         <v>142466.85763797181</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J30">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -6154,13 +6268,13 @@
         <v>147479.82166771073</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -6181,13 +6295,13 @@
         <v>152924.9818553034</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J32">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -6208,13 +6322,13 @@
         <v>162841.33883901406</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -6240,13 +6354,13 @@
         <v>142871.53647526138</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -6272,13 +6386,13 @@
         <v>148238.14553112964</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -6304,13 +6418,13 @@
         <v>153542.51990888026</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J36">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -6336,13 +6450,13 @@
         <v>167963.79808472874</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -6368,13 +6482,13 @@
         <v>147811.68552463484</v>
       </c>
       <c r="H38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J38">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -6400,13 +6514,13 @@
         <v>155186.83717420479</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J39">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -6432,13 +6546,13 @@
         <v>159996.88084263631</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -6464,13 +6578,13 @@
         <v>177155.596458524</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -6496,13 +6610,13 @@
         <v>157762.78754916365</v>
       </c>
       <c r="H42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -6528,13 +6642,13 @@
         <v>165412.01753875607</v>
       </c>
       <c r="H43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -6560,13 +6674,13 @@
         <v>172652.39361992312</v>
       </c>
       <c r="H44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -6592,13 +6706,13 @@
         <v>188800.80129215718</v>
       </c>
       <c r="H45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -6624,13 +6738,13 @@
         <v>166996.88047309549</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -6656,13 +6770,13 @@
         <v>173577.62041998119</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -6688,13 +6802,13 @@
         <v>176900.49539803842</v>
       </c>
       <c r="H48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J48">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -6720,13 +6834,13 @@
         <v>193940.00370888491</v>
       </c>
       <c r="H49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -6752,13 +6866,13 @@
         <v>171244.7502044444</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J50">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -6784,13 +6898,13 @@
         <v>183008.77049865527</v>
       </c>
       <c r="H51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J51">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -6816,13 +6930,13 @@
         <v>187401.36404294043</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J52">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -6848,13 +6962,13 @@
         <v>206284.11525395993</v>
       </c>
       <c r="H53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J53">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -6880,13 +6994,13 @@
         <v>182282.85572104307</v>
       </c>
       <c r="H54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -6912,13 +7026,13 @@
         <v>189638.37946240322</v>
       </c>
       <c r="H55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -6944,13 +7058,13 @@
         <v>195558.67375589258</v>
       </c>
       <c r="H56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J56">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -6976,13 +7090,13 @@
         <v>214109.09106066119</v>
       </c>
       <c r="H57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J57">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -7008,13 +7122,13 @@
         <v>187841.99665840552</v>
       </c>
       <c r="H58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J58">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -7040,13 +7154,13 @@
         <v>195888.91740175121</v>
       </c>
       <c r="H59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J59">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -7072,13 +7186,13 @@
         <v>202886.98101223414</v>
       </c>
       <c r="H60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J60">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -7104,13 +7218,13 @@
         <v>218074.10492760915</v>
       </c>
       <c r="H61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J61">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -7136,13 +7250,13 @@
         <v>191782.13832631495</v>
       </c>
       <c r="H62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J62">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -7168,13 +7282,13 @@
         <v>199892.39909796359</v>
       </c>
       <c r="H63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J63">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -7200,13 +7314,13 @@
         <v>205900.37219315331</v>
       </c>
       <c r="H64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J64">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -7232,13 +7346,13 @@
         <v>223914.09038256816</v>
       </c>
       <c r="H65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J65">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -7264,13 +7378,13 @@
         <v>193740.59653470648</v>
       </c>
       <c r="H66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J66">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -7296,13 +7410,13 @@
         <v>202490.25456262982</v>
       </c>
       <c r="H67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J67">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -7328,13 +7442,13 @@
         <v>209366.66421509537</v>
       </c>
       <c r="H68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J68">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -7360,13 +7474,13 @@
         <v>227058.48468756833</v>
       </c>
       <c r="H69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J69">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -7392,13 +7506,13 @@
         <v>197176.58134961972</v>
       </c>
       <c r="H70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J70">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -7424,13 +7538,13 @@
         <v>208084.23827760434</v>
       </c>
       <c r="H71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J71">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -7456,13 +7570,13 @@
         <v>215046.21286935752</v>
       </c>
       <c r="H72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J72">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -7488,13 +7602,13 @@
         <v>233292.96750341833</v>
       </c>
       <c r="H73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J73">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -7520,13 +7634,13 @@
         <v>203021.42808284517</v>
       </c>
       <c r="H74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J74">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -7552,13 +7666,13 @@
         <v>214490.6939274953</v>
       </c>
       <c r="H75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J75">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -7584,13 +7698,13 @@
         <v>222545.87120284169</v>
       </c>
       <c r="H76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J76">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -7616,13 +7730,13 @@
         <v>241371.21655283868</v>
       </c>
       <c r="H77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J77">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -7648,13 +7762,13 @@
         <v>205500.29788914035</v>
       </c>
       <c r="H78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J78">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -7680,13 +7794,13 @@
         <v>180494.32810719276</v>
       </c>
       <c r="H79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J79">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -7712,13 +7826,13 @@
         <v>202513.5145748404</v>
       </c>
       <c r="H80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J80">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -7739,13 +7853,13 @@
         <v>12036951.985190053</v>
       </c>
       <c r="H81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J81">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7765,15 +7879,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007417CAAD3D4CC5408E07FA223EE9CF92" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="de111c8a5aec253deda3dfe899a9f548">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="37337b4d-9f4b-4af9-a987-3c7751e30e6b" xmlns:ns4="95780af1-cc00-46be-b649-c4555d42f645" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59651f371eb86c92c606e999117fff74" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7993,6 +8098,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4789F0D4-1CDA-4FA4-8EC0-1495E0100034}">
   <ds:schemaRefs>
@@ -8002,16 +8116,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C2D3E66-E8BD-46C0-B729-E69E213EEE0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8029,4 +8133,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/modified_variables_file.xlsx
+++ b/modified_variables_file.xlsx
@@ -245,157 +245,157 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$I$34:$I$80</c:f>
+              <c:f>Hoja1!$I$30:$I$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$34:$E$80</c:f>
+              <c:f>Hoja1!$E$30:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="47"/>
@@ -811,7 +811,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$J$34:$J$81</c:f>
+              <c:f>Hoja1!$J$30:$J$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -964,7 +964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$F$34:$F$81</c:f>
+              <c:f>Hoja1!$F$30:$F$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1377,8 +1377,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.19294358974358974"/>
-                  <c:y val="0.43418880677504362"/>
+                  <c:x val="-0.14753305067635777"/>
+                  <c:y val="1.0571453043622159E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1400,10 +1400,10 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="es-CO" sz="1800" baseline="0"/>
-                      <a:t>y = 0.7696x + 44.307</a:t>
+                      <a:rPr lang="es-CO" sz="1600" baseline="0"/>
+                      <a:t>y = 0.7696x + 47.386</a:t>
                     </a:r>
-                    <a:endParaRPr lang="es-CO" sz="1800"/>
+                    <a:endParaRPr lang="es-CO" sz="1600"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1439,10 +1439,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$I$2:$I$81</c:f>
+              <c:f>Hoja1!$I$2:$I$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1670,242 +1670,230 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$81</c:f>
+              <c:f>Hoja1!$C$2:$C$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="76"/>
+                <c:pt idx="4">
+                  <c:v>51.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.07</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.51</c:v>
+                  <c:v>54.71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.33</c:v>
+                  <c:v>55.51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.53</c:v>
+                  <c:v>55.67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.07</c:v>
+                  <c:v>55.99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.71</c:v>
+                  <c:v>57.46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.51</c:v>
+                  <c:v>58.18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.67</c:v>
+                  <c:v>58.46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.99</c:v>
+                  <c:v>58.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.46</c:v>
+                  <c:v>59.83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.18</c:v>
+                  <c:v>60.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.46</c:v>
+                  <c:v>61.14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58.7</c:v>
+                  <c:v>61.33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.83</c:v>
+                  <c:v>63.29</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.48</c:v>
+                  <c:v>64.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.14</c:v>
+                  <c:v>64.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>61.33</c:v>
+                  <c:v>64.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.29</c:v>
+                  <c:v>67.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.12</c:v>
+                  <c:v>68.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.2</c:v>
+                  <c:v>69.06</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64.819999999999993</c:v>
+                  <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67.040000000000006</c:v>
+                  <c:v>71.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.73</c:v>
+                  <c:v>71.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69.06</c:v>
+                  <c:v>71.28</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.8</c:v>
+                  <c:v>71.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71.150000000000006</c:v>
+                  <c:v>72.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>71.349999999999994</c:v>
+                  <c:v>72.95</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>71.28</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71.2</c:v>
+                  <c:v>73.45</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72.459999999999994</c:v>
+                  <c:v>74.77</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>72.95</c:v>
+                  <c:v>75.31</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72.900000000000006</c:v>
+                  <c:v>75.62</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>73.45</c:v>
+                  <c:v>76.19</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74.77</c:v>
+                  <c:v>77.31</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>75.31</c:v>
+                  <c:v>77.72</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75.62</c:v>
+                  <c:v>77.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>76.19</c:v>
+                  <c:v>78.05</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.31</c:v>
+                  <c:v>78.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>77.72</c:v>
+                  <c:v>79.39</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>77.959999999999994</c:v>
+                  <c:v>79.73</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>78.05</c:v>
+                  <c:v>79.56</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78.790000000000006</c:v>
+                  <c:v>80.77</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79.39</c:v>
+                  <c:v>81.61</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>79.73</c:v>
+                  <c:v>82.01</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>79.56</c:v>
+                  <c:v>82.47</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>80.77</c:v>
+                  <c:v>84.45</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>81.61</c:v>
+                  <c:v>85.21</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>82.01</c:v>
+                  <c:v>86.39</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>82.47</c:v>
+                  <c:v>88.05</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>84.45</c:v>
+                  <c:v>91.18</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>85.21</c:v>
+                  <c:v>92.54</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>86.39</c:v>
+                  <c:v>92.68</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>88.05</c:v>
+                  <c:v>93.11</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>91.18</c:v>
+                  <c:v>95.46</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>92.54</c:v>
+                  <c:v>96.23</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92.68</c:v>
+                  <c:v>96.36</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93.11</c:v>
+                  <c:v>96.92</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>95.46</c:v>
+                  <c:v>98.45</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>96.23</c:v>
+                  <c:v>99.31</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96.36</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>96.92</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.45</c:v>
+                  <c:v>101.62</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99.31</c:v>
+                  <c:v>102.71</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>99.47</c:v>
+                  <c:v>103.26</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>100</c:v>
+                  <c:v>103.8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>101.62</c:v>
+                  <c:v>105.53</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>102.71</c:v>
+                  <c:v>104.97</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>103.26</c:v>
+                  <c:v>105.29</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>103.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>105.53</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>104.97</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>105.29</c:v>
-                </c:pt>
-                <c:pt idx="79">
                   <c:v>105.48</c:v>
                 </c:pt>
               </c:numCache>
@@ -2207,8 +2195,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14219969378827646"/>
-                  <c:y val="-9.6875182268883059E-2"/>
+                  <c:x val="-0.2885308398950131"/>
+                  <c:y val="-3.9435244226089169E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2230,10 +2218,10 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
-                      <a:t>y = 1538.5x + 105743</a:t>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 1538.5x + 111897</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="2000"/>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2269,205 +2257,205 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$H$18:$H$80</c:f>
+              <c:f>Hoja1!$H$14:$H$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$G$18:$G$80</c:f>
+              <c:f>Hoja1!$G$14:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="63"/>
@@ -5080,13 +5068,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5113,12 +5101,12 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5142,13 +5130,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5170,15 +5158,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5498,11 +5486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5541,13 +5529,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>36951</v>
+        <v>37316</v>
       </c>
       <c r="B2" s="5">
-        <v>0.20020719409292198</v>
+        <v>0.19002817036418493</v>
       </c>
       <c r="D2" s="6">
-        <v>2278.7800000000002</v>
+        <v>2282.33</v>
       </c>
       <c r="E2" s="3"/>
       <c r="H2">
@@ -5557,18 +5545,18 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>37043</v>
+        <v>37408</v>
       </c>
       <c r="B3" s="5">
-        <v>0.18162707311028053</v>
+        <v>0.17749709473291714</v>
       </c>
       <c r="D3" s="6">
-        <v>2305.66</v>
+        <v>2364.25</v>
       </c>
       <c r="E3" s="3"/>
       <c r="H3">
@@ -5578,18 +5566,18 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>37135</v>
+        <v>37500</v>
       </c>
       <c r="B4" s="5">
-        <v>0.17762326599476339</v>
+        <v>0.17946462005377087</v>
       </c>
       <c r="D4" s="6">
-        <v>2328.23</v>
+        <v>2751.23</v>
       </c>
       <c r="E4" s="3"/>
       <c r="H4">
@@ -5599,18 +5587,18 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>37226</v>
+        <v>37591</v>
       </c>
       <c r="B5" s="5">
-        <v>0.16625328073072651</v>
+        <v>0.1574563542938297</v>
       </c>
       <c r="D5" s="6">
-        <v>2306.9</v>
+        <v>2814.89</v>
       </c>
       <c r="E5" s="3"/>
       <c r="H5">
@@ -5620,18 +5608,21 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>37316</v>
+        <v>37681</v>
       </c>
       <c r="B6" s="5">
-        <v>0.19002817036418493</v>
+        <v>0.17792904468551132</v>
+      </c>
+      <c r="C6">
+        <v>51.51</v>
       </c>
       <c r="D6" s="6">
-        <v>2282.33</v>
+        <v>2959.01</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6">
@@ -5641,18 +5632,21 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>37408</v>
+        <v>37773</v>
       </c>
       <c r="B7" s="5">
-        <v>0.17749709473291714</v>
+        <v>0.16998698192394357</v>
+      </c>
+      <c r="C7">
+        <v>52.33</v>
       </c>
       <c r="D7" s="6">
-        <v>2364.25</v>
+        <v>2826.95</v>
       </c>
       <c r="E7" s="3"/>
       <c r="H7">
@@ -5662,18 +5656,21 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>37500</v>
+        <v>37865</v>
       </c>
       <c r="B8" s="5">
-        <v>0.17946462005377087</v>
+        <v>0.16968459987546719</v>
+      </c>
+      <c r="C8">
+        <v>52.53</v>
       </c>
       <c r="D8" s="6">
-        <v>2751.23</v>
+        <v>2840.08</v>
       </c>
       <c r="E8" s="3"/>
       <c r="H8">
@@ -5683,18 +5680,21 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>37591</v>
+        <v>37956</v>
       </c>
       <c r="B9" s="5">
-        <v>0.1574563542938297</v>
+        <v>0.14613589713043867</v>
+      </c>
+      <c r="C9">
+        <v>53.07</v>
       </c>
       <c r="D9" s="6">
-        <v>2814.89</v>
+        <v>2807.2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="H9">
@@ -5704,21 +5704,21 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>37681</v>
+        <v>38047</v>
       </c>
       <c r="B10" s="5">
-        <v>0.17792904468551132</v>
+        <v>0.1714701170209941</v>
       </c>
       <c r="C10">
-        <v>51.51</v>
+        <v>54.71</v>
       </c>
       <c r="D10" s="6">
-        <v>2959.01</v>
+        <v>2670.8</v>
       </c>
       <c r="E10" s="3"/>
       <c r="H10">
@@ -5728,21 +5728,21 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>37773</v>
+        <v>38139</v>
       </c>
       <c r="B11" s="5">
-        <v>0.16998698192394357</v>
+        <v>0.15692797729979233</v>
       </c>
       <c r="C11">
-        <v>52.33</v>
+        <v>55.51</v>
       </c>
       <c r="D11" s="6">
-        <v>2826.95</v>
+        <v>2716.56</v>
       </c>
       <c r="E11" s="3"/>
       <c r="H11">
@@ -5752,21 +5752,21 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>37865</v>
+        <v>38231</v>
       </c>
       <c r="B12" s="5">
-        <v>0.16968459987546719</v>
+        <v>0.14824469062409487</v>
       </c>
       <c r="C12">
-        <v>52.53</v>
+        <v>55.67</v>
       </c>
       <c r="D12" s="6">
-        <v>2840.08</v>
+        <v>2552.7800000000002</v>
       </c>
       <c r="E12" s="3"/>
       <c r="H12">
@@ -5776,21 +5776,21 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>37956</v>
+        <v>38322</v>
       </c>
       <c r="B13" s="5">
-        <v>0.14613589713043867</v>
+        <v>0.13550185736712711</v>
       </c>
       <c r="C13">
-        <v>53.07</v>
+        <v>55.99</v>
       </c>
       <c r="D13" s="6">
-        <v>2807.2</v>
+        <v>2411.37</v>
       </c>
       <c r="E13" s="3"/>
       <c r="H13">
@@ -5800,23 +5800,26 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>38047</v>
+        <v>38412</v>
       </c>
       <c r="B14" s="5">
-        <v>0.1714701170209941</v>
+        <v>0.15764188876926374</v>
       </c>
       <c r="C14">
-        <v>54.71</v>
+        <v>57.46</v>
       </c>
       <c r="D14" s="6">
-        <v>2670.8</v>
+        <v>2353.71</v>
       </c>
       <c r="E14" s="3"/>
+      <c r="G14" s="7">
+        <v>119348.21424077044</v>
+      </c>
       <c r="H14">
         <v>12</v>
       </c>
@@ -5824,23 +5827,26 @@
         <v>12</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>38139</v>
+        <v>38504</v>
       </c>
       <c r="B15" s="5">
-        <v>0.15692797729979233</v>
+        <v>0.14119064150547048</v>
       </c>
       <c r="C15">
-        <v>55.51</v>
+        <v>58.18</v>
       </c>
       <c r="D15" s="6">
-        <v>2716.56</v>
+        <v>2331.79</v>
       </c>
       <c r="E15" s="3"/>
+      <c r="G15" s="7">
+        <v>125126.32036160388</v>
+      </c>
       <c r="H15">
         <v>13</v>
       </c>
@@ -5848,23 +5854,26 @@
         <v>13</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>38231</v>
+        <v>38596</v>
       </c>
       <c r="B16" s="5">
-        <v>0.14824469062409487</v>
+        <v>0.13767138647126997</v>
       </c>
       <c r="C16">
-        <v>55.67</v>
+        <v>58.46</v>
       </c>
       <c r="D16" s="6">
-        <v>2552.7800000000002</v>
+        <v>2294.52</v>
       </c>
       <c r="E16" s="3"/>
+      <c r="G16" s="7">
+        <v>128645.77495307969</v>
+      </c>
       <c r="H16">
         <v>14</v>
       </c>
@@ -5872,23 +5881,26 @@
         <v>14</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>38322</v>
+        <v>38687</v>
       </c>
       <c r="B17" s="5">
-        <v>0.13550185736712711</v>
+        <v>0.12041666927171187</v>
       </c>
       <c r="C17">
-        <v>55.99</v>
+        <v>58.7</v>
       </c>
       <c r="D17" s="6">
-        <v>2411.37</v>
+        <v>2278.91</v>
       </c>
       <c r="E17" s="3"/>
+      <c r="G17" s="7">
+        <v>141732.69044454599</v>
+      </c>
       <c r="H17">
         <v>15</v>
       </c>
@@ -5896,25 +5908,25 @@
         <v>15</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>38412</v>
+        <v>38777</v>
       </c>
       <c r="B18" s="5">
-        <v>0.15764188876926374</v>
+        <v>0.14052805468519558</v>
       </c>
       <c r="C18">
-        <v>57.46</v>
+        <v>59.83</v>
       </c>
       <c r="D18" s="6">
-        <v>2353.71</v>
+        <v>2262.36</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="7">
-        <v>119348.21424077044</v>
+        <v>127132.28112469544</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -5923,25 +5935,25 @@
         <v>16</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>38504</v>
+        <v>38869</v>
       </c>
       <c r="B19" s="5">
-        <v>0.14119064150547048</v>
+        <v>0.12812229961965466</v>
       </c>
       <c r="C19">
-        <v>58.18</v>
+        <v>60.48</v>
       </c>
       <c r="D19" s="6">
-        <v>2331.79</v>
+        <v>2542.2399999999998</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="7">
-        <v>125126.32036160388</v>
+        <v>131831.67141360854</v>
       </c>
       <c r="H19">
         <v>17</v>
@@ -5950,25 +5962,25 @@
         <v>17</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>38596</v>
+        <v>38961</v>
       </c>
       <c r="B20" s="5">
-        <v>0.13767138647126997</v>
+        <v>0.12686658892632471</v>
       </c>
       <c r="C20">
-        <v>58.46</v>
+        <v>61.14</v>
       </c>
       <c r="D20" s="6">
-        <v>2294.52</v>
+        <v>2398.88</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="7">
-        <v>128645.77495307969</v>
+        <v>138473.57647509291</v>
       </c>
       <c r="H20">
         <v>18</v>
@@ -5977,25 +5989,25 @@
         <v>18</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>38687</v>
+        <v>39052</v>
       </c>
       <c r="B21" s="5">
-        <v>0.12041666927171187</v>
+        <v>0.12130070282961647</v>
       </c>
       <c r="C21">
-        <v>58.7</v>
+        <v>61.33</v>
       </c>
       <c r="D21" s="6">
-        <v>2278.91</v>
+        <v>2261.33526315789</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="7">
-        <v>141732.69044454599</v>
+        <v>151997.47098660312</v>
       </c>
       <c r="H21">
         <v>19</v>
@@ -6004,25 +6016,25 @@
         <v>19</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>38777</v>
+        <v>39142</v>
       </c>
       <c r="B22" s="5">
-        <v>0.14052805468519558</v>
+        <v>0.13275955793054467</v>
       </c>
       <c r="C22">
-        <v>59.83</v>
+        <v>63.29</v>
       </c>
       <c r="D22" s="6">
-        <v>2262.36</v>
+        <v>2201.39</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="7">
-        <v>127132.28112469544</v>
+        <v>135593.03714640398</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -6031,25 +6043,25 @@
         <v>20</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>38869</v>
+        <v>39234</v>
       </c>
       <c r="B23" s="5">
-        <v>0.12812229961965466</v>
+        <v>0.11482078851156449</v>
       </c>
       <c r="C23">
-        <v>60.48</v>
+        <v>64.12</v>
       </c>
       <c r="D23" s="6">
-        <v>2542.2399999999998</v>
+        <v>1923.76</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="7">
-        <v>131831.67141360854</v>
+        <v>140734.41132912389</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -6058,25 +6070,25 @@
         <v>21</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>38961</v>
+        <v>39326</v>
       </c>
       <c r="B24" s="5">
-        <v>0.12686658892632471</v>
+        <v>0.10998376929415855</v>
       </c>
       <c r="C24">
-        <v>61.14</v>
+        <v>64.2</v>
       </c>
       <c r="D24" s="6">
-        <v>2398.88</v>
+        <v>2117.0500000000002</v>
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="7">
-        <v>138473.57647509291</v>
+        <v>147975.39601032983</v>
       </c>
       <c r="H24">
         <v>22</v>
@@ -6085,25 +6097,25 @@
         <v>22</v>
       </c>
       <c r="J24">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>39052</v>
+        <v>39417</v>
       </c>
       <c r="B25" s="5">
-        <v>0.12130070282961647</v>
+        <v>9.78031036101078E-2</v>
       </c>
       <c r="C25">
-        <v>61.33</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="D25" s="6">
-        <v>2261.33526315789</v>
+        <v>2014.2014999999999</v>
       </c>
       <c r="E25" s="3"/>
       <c r="G25" s="7">
-        <v>151997.47098660312</v>
+        <v>162154.15551414233</v>
       </c>
       <c r="H25">
         <v>23</v>
@@ -6112,25 +6124,25 @@
         <v>23</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>39142</v>
+        <v>39508</v>
       </c>
       <c r="B26" s="5">
-        <v>0.13275955793054467</v>
+        <v>0.12299887504171521</v>
       </c>
       <c r="C26">
-        <v>63.29</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="D26" s="6">
-        <v>2201.39</v>
+        <v>1846.9</v>
       </c>
       <c r="E26" s="3"/>
       <c r="G26" s="7">
-        <v>135593.03714640398</v>
+        <v>142466.85763797181</v>
       </c>
       <c r="H26">
         <v>24</v>
@@ -6139,25 +6151,25 @@
         <v>24</v>
       </c>
       <c r="J26">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>39234</v>
+        <v>39600</v>
       </c>
       <c r="B27" s="5">
-        <v>0.11482078851156449</v>
+        <v>0.11574609434955944</v>
       </c>
       <c r="C27">
-        <v>64.12</v>
+        <v>68.73</v>
       </c>
       <c r="D27" s="6">
-        <v>1923.76</v>
+        <v>1712.28</v>
       </c>
       <c r="E27" s="3"/>
       <c r="G27" s="7">
-        <v>140734.41132912389</v>
+        <v>147479.82166771073</v>
       </c>
       <c r="H27">
         <v>25</v>
@@ -6166,25 +6178,25 @@
         <v>25</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>39326</v>
+        <v>39692</v>
       </c>
       <c r="B28" s="5">
-        <v>0.10998376929415855</v>
+        <v>0.11532218160867323</v>
       </c>
       <c r="C28">
-        <v>64.2</v>
+        <v>69.06</v>
       </c>
       <c r="D28" s="6">
-        <v>2117.0500000000002</v>
+        <v>2066.04</v>
       </c>
       <c r="E28" s="3"/>
       <c r="G28" s="7">
-        <v>147975.39601032983</v>
+        <v>152924.9818553034</v>
       </c>
       <c r="H28">
         <v>26</v>
@@ -6193,25 +6205,25 @@
         <v>26</v>
       </c>
       <c r="J28">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>39417</v>
+        <v>39783</v>
       </c>
       <c r="B29" s="5">
-        <v>9.78031036101078E-2</v>
+        <v>0.10745607076845977</v>
       </c>
       <c r="C29">
-        <v>64.819999999999993</v>
+        <v>69.8</v>
       </c>
       <c r="D29" s="6">
-        <v>2014.2014999999999</v>
+        <v>2252.7199999999998</v>
       </c>
       <c r="E29" s="3"/>
       <c r="G29" s="7">
-        <v>162154.15551414233</v>
+        <v>162841.33883901406</v>
       </c>
       <c r="H29">
         <v>27</v>
@@ -6220,25 +6232,30 @@
         <v>27</v>
       </c>
       <c r="J29">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>39508</v>
+        <v>39873</v>
       </c>
       <c r="B30" s="5">
-        <v>0.12299887504171521</v>
+        <v>0.13995148046189504</v>
       </c>
       <c r="C30">
-        <v>67.040000000000006</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="D30" s="6">
-        <v>1846.9</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>2477.21</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7577147.62366</v>
+      </c>
+      <c r="F30">
+        <v>7972761.3206599671</v>
+      </c>
       <c r="G30" s="7">
-        <v>142466.85763797181</v>
+        <v>142871.53647526138</v>
       </c>
       <c r="H30">
         <v>28</v>
@@ -6247,25 +6264,30 @@
         <v>28</v>
       </c>
       <c r="J30">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>39600</v>
+        <v>39965</v>
       </c>
       <c r="B31" s="5">
-        <v>0.11574609434955944</v>
+        <v>0.12783436286059191</v>
       </c>
       <c r="C31">
-        <v>68.73</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="D31" s="6">
-        <v>1712.28</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="G31" s="7">
-        <v>147479.82166771073</v>
+        <v>2090.04</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7908172.8902599998</v>
+      </c>
+      <c r="F31">
+        <v>7601266.3358100224</v>
+      </c>
+      <c r="G31" s="8">
+        <v>148238.14553112964</v>
       </c>
       <c r="H31">
         <v>29</v>
@@ -6274,25 +6296,30 @@
         <v>29</v>
       </c>
       <c r="J31">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>39692</v>
+        <v>40057</v>
       </c>
       <c r="B32" s="5">
-        <v>0.11532218160867323</v>
+        <v>0.1295934282754965</v>
       </c>
       <c r="C32">
-        <v>69.06</v>
+        <v>71.28</v>
       </c>
       <c r="D32" s="6">
-        <v>2066.04</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="G32" s="7">
-        <v>152924.9818553034</v>
+        <v>1980.77</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8368053.1252899822</v>
+      </c>
+      <c r="F32">
+        <v>8468969.2623700071</v>
+      </c>
+      <c r="G32" s="8">
+        <v>153542.51990888026</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -6301,25 +6328,30 @@
         <v>30</v>
       </c>
       <c r="J32">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>39783</v>
+        <v>40148</v>
       </c>
       <c r="B33" s="5">
-        <v>0.10745607076845977</v>
+        <v>0.12263656053454949</v>
       </c>
       <c r="C33">
-        <v>69.8</v>
+        <v>71.2</v>
       </c>
       <c r="D33" s="6">
-        <v>2252.7199999999998</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>2017.05</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8992953.0709800199</v>
+      </c>
+      <c r="F33">
+        <v>8848135.9086900055</v>
+      </c>
       <c r="G33" s="7">
-        <v>162841.33883901406</v>
+        <v>167963.79808472874</v>
       </c>
       <c r="H33">
         <v>31</v>
@@ -6328,30 +6360,30 @@
         <v>31</v>
       </c>
       <c r="J33">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>39873</v>
+        <v>40238</v>
       </c>
       <c r="B34" s="5">
-        <v>0.13995148046189504</v>
+        <v>0.13699653964980321</v>
       </c>
       <c r="C34">
-        <v>71.150000000000006</v>
+        <v>72.459999999999994</v>
       </c>
       <c r="D34" s="6">
-        <v>2477.21</v>
+        <v>1909.1</v>
       </c>
       <c r="E34" s="3">
-        <v>7577147.62366</v>
+        <v>9120492.836740002</v>
       </c>
       <c r="F34">
-        <v>7972761.3206599671</v>
-      </c>
-      <c r="G34" s="7">
-        <v>142871.53647526138</v>
+        <v>8768072.3598799724</v>
+      </c>
+      <c r="G34" s="8">
+        <v>147811.68552463484</v>
       </c>
       <c r="H34">
         <v>32</v>
@@ -6360,30 +6392,30 @@
         <v>32</v>
       </c>
       <c r="J34">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>39965</v>
+        <v>40330</v>
       </c>
       <c r="B35" s="5">
-        <v>0.12783436286059191</v>
+        <v>0.12668325376614642</v>
       </c>
       <c r="C35">
-        <v>71.349999999999994</v>
+        <v>72.95</v>
       </c>
       <c r="D35" s="6">
-        <v>2090.04</v>
+        <v>1925.9</v>
       </c>
       <c r="E35" s="3">
-        <v>7908172.8902599998</v>
+        <v>10064936.637559984</v>
       </c>
       <c r="F35">
-        <v>7601266.3358100224</v>
+        <v>9427708.6424900424</v>
       </c>
       <c r="G35" s="8">
-        <v>148238.14553112964</v>
+        <v>155186.83717420479</v>
       </c>
       <c r="H35">
         <v>33</v>
@@ -6392,30 +6424,30 @@
         <v>33</v>
       </c>
       <c r="J35">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>40057</v>
+        <v>40422</v>
       </c>
       <c r="B36" s="5">
-        <v>0.1295934282754965</v>
+        <v>0.12349716553779323</v>
       </c>
       <c r="C36">
-        <v>71.28</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D36" s="6">
-        <v>1980.77</v>
+        <v>1805.6</v>
       </c>
       <c r="E36" s="3">
-        <v>8368053.1252899822</v>
+        <v>9720522.4951199926</v>
       </c>
       <c r="F36">
-        <v>8468969.2623700071</v>
-      </c>
-      <c r="G36" s="8">
-        <v>153542.51990888026</v>
+        <v>10892965.209259972</v>
+      </c>
+      <c r="G36" s="7">
+        <v>159996.88084263631</v>
       </c>
       <c r="H36">
         <v>34</v>
@@ -6424,30 +6456,30 @@
         <v>34</v>
       </c>
       <c r="J36">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>40148</v>
+        <v>40513</v>
       </c>
       <c r="B37" s="5">
-        <v>0.12263656053454949</v>
+        <v>0.11028935924573481</v>
       </c>
       <c r="C37">
-        <v>71.2</v>
+        <v>73.45</v>
       </c>
       <c r="D37" s="6">
-        <v>2017.05</v>
+        <v>1925.86</v>
       </c>
       <c r="E37" s="3">
-        <v>8992953.0709800199</v>
+        <v>10807384.431020029</v>
       </c>
       <c r="F37">
-        <v>8848135.9086900055</v>
-      </c>
-      <c r="G37" s="7">
-        <v>167963.79808472874</v>
+        <v>11396809.478160018</v>
+      </c>
+      <c r="G37" s="8">
+        <v>177155.596458524</v>
       </c>
       <c r="H37">
         <v>35</v>
@@ -6456,30 +6488,30 @@
         <v>35</v>
       </c>
       <c r="J37">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>40238</v>
+        <v>40603</v>
       </c>
       <c r="B38" s="5">
-        <v>0.13699653964980321</v>
+        <v>0.13384736744847031</v>
       </c>
       <c r="C38">
-        <v>72.459999999999994</v>
+        <v>74.77</v>
       </c>
       <c r="D38" s="6">
-        <v>1909.1</v>
+        <v>1884.38</v>
       </c>
       <c r="E38" s="3">
-        <v>9120492.836740002</v>
+        <v>12612060.31992995</v>
       </c>
       <c r="F38">
-        <v>8768072.3598799724</v>
+        <v>12098119.087110005</v>
       </c>
       <c r="G38" s="8">
-        <v>147811.68552463484</v>
+        <v>157762.78754916365</v>
       </c>
       <c r="H38">
         <v>36</v>
@@ -6488,30 +6520,30 @@
         <v>36</v>
       </c>
       <c r="J38">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>40330</v>
+        <v>40695</v>
       </c>
       <c r="B39" s="5">
-        <v>0.12668325376614642</v>
+        <v>0.11513214305421718</v>
       </c>
       <c r="C39">
-        <v>72.95</v>
+        <v>75.31</v>
       </c>
       <c r="D39" s="6">
-        <v>1925.9</v>
+        <v>1782.54</v>
       </c>
       <c r="E39" s="3">
-        <v>10064936.637559984</v>
+        <v>14685540.815510042</v>
       </c>
       <c r="F39">
-        <v>9427708.6424900424</v>
-      </c>
-      <c r="G39" s="8">
-        <v>155186.83717420479</v>
+        <v>13519430.619200027</v>
+      </c>
+      <c r="G39" s="7">
+        <v>165412.01753875607</v>
       </c>
       <c r="H39">
         <v>37</v>
@@ -6520,30 +6552,30 @@
         <v>37</v>
       </c>
       <c r="J39">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>40422</v>
+        <v>40787</v>
       </c>
       <c r="B40" s="5">
-        <v>0.12349716553779323</v>
+        <v>0.1064548159917265</v>
       </c>
       <c r="C40">
-        <v>72.900000000000006</v>
+        <v>75.62</v>
       </c>
       <c r="D40" s="6">
-        <v>1805.6</v>
+        <v>1836.15</v>
       </c>
       <c r="E40" s="3">
-        <v>9720522.4951199926</v>
+        <v>14390274.396400005</v>
       </c>
       <c r="F40">
-        <v>10892965.209259972</v>
-      </c>
-      <c r="G40" s="7">
-        <v>159996.88084263631</v>
+        <v>14275423.299669962</v>
+      </c>
+      <c r="G40" s="8">
+        <v>172652.39361992312</v>
       </c>
       <c r="H40">
         <v>38</v>
@@ -6552,30 +6584,30 @@
         <v>38</v>
       </c>
       <c r="J40">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40513</v>
+        <v>40878</v>
       </c>
       <c r="B41" s="5">
-        <v>0.11028935924573481</v>
+        <v>0.10291575948104638</v>
       </c>
       <c r="C41">
-        <v>73.45</v>
+        <v>76.19</v>
       </c>
       <c r="D41" s="6">
-        <v>1925.86</v>
+        <v>1934.08</v>
       </c>
       <c r="E41" s="3">
-        <v>10807384.431020029</v>
+        <v>15227063.578499978</v>
       </c>
       <c r="F41">
-        <v>11396809.478160018</v>
+        <v>14339596.156230006</v>
       </c>
       <c r="G41" s="8">
-        <v>177155.596458524</v>
+        <v>188800.80129215718</v>
       </c>
       <c r="H41">
         <v>39</v>
@@ -6584,30 +6616,30 @@
         <v>39</v>
       </c>
       <c r="J41">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>40603</v>
+        <v>40969</v>
       </c>
       <c r="B42" s="5">
-        <v>0.13384736744847031</v>
+        <v>0.12242335721854693</v>
       </c>
       <c r="C42">
-        <v>74.77</v>
+        <v>77.31</v>
       </c>
       <c r="D42" s="6">
-        <v>1884.38</v>
+        <v>1766.34</v>
       </c>
       <c r="E42" s="3">
-        <v>12612060.31992995</v>
+        <v>15497446.065460045</v>
       </c>
       <c r="F42">
-        <v>12098119.087110005</v>
-      </c>
-      <c r="G42" s="8">
-        <v>157762.78754916365</v>
+        <v>14043512.45632006</v>
+      </c>
+      <c r="G42" s="7">
+        <v>166996.88047309549</v>
       </c>
       <c r="H42">
         <v>40</v>
@@ -6616,30 +6648,30 @@
         <v>40</v>
       </c>
       <c r="J42">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>40695</v>
+        <v>41061</v>
       </c>
       <c r="B43" s="5">
-        <v>0.11513214305421718</v>
+        <v>0.1151869876757201</v>
       </c>
       <c r="C43">
-        <v>75.31</v>
+        <v>77.72</v>
       </c>
       <c r="D43" s="6">
-        <v>1782.54</v>
+        <v>1792.63</v>
       </c>
       <c r="E43" s="3">
-        <v>14685540.815510042</v>
+        <v>14977735.816669993</v>
       </c>
       <c r="F43">
-        <v>13519430.619200027</v>
-      </c>
-      <c r="G43" s="7">
-        <v>165412.01753875607</v>
+        <v>15018251.755579978</v>
+      </c>
+      <c r="G43" s="8">
+        <v>173577.62041998119</v>
       </c>
       <c r="H43">
         <v>41</v>
@@ -6648,30 +6680,30 @@
         <v>41</v>
       </c>
       <c r="J43">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>40787</v>
+        <v>41153</v>
       </c>
       <c r="B44" s="5">
-        <v>0.1064548159917265</v>
+        <v>0.10891739688980516</v>
       </c>
       <c r="C44">
-        <v>75.62</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="D44" s="6">
-        <v>1836.15</v>
+        <v>1803.18</v>
       </c>
       <c r="E44" s="3">
-        <v>14390274.396400005</v>
+        <v>14458087.665089957</v>
       </c>
       <c r="F44">
-        <v>14275423.299669962</v>
+        <v>15112252.017349947</v>
       </c>
       <c r="G44" s="8">
-        <v>172652.39361992312</v>
+        <v>176900.49539803842</v>
       </c>
       <c r="H44">
         <v>42</v>
@@ -6680,30 +6712,30 @@
         <v>42</v>
       </c>
       <c r="J44">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="B45" s="5">
-        <v>0.10291575948104638</v>
+        <v>0.10077125778851931</v>
       </c>
       <c r="C45">
-        <v>76.19</v>
+        <v>78.05</v>
       </c>
       <c r="D45" s="6">
-        <v>1934.08</v>
+        <v>1793.94</v>
       </c>
       <c r="E45" s="3">
-        <v>15227063.578499978</v>
+        <v>15191896.370710049</v>
       </c>
       <c r="F45">
-        <v>14339596.156230006</v>
-      </c>
-      <c r="G45" s="8">
-        <v>188800.80129215718</v>
+        <v>14873667.932340011</v>
+      </c>
+      <c r="G45" s="7">
+        <v>193940.00370888491</v>
       </c>
       <c r="H45">
         <v>43</v>
@@ -6712,30 +6744,30 @@
         <v>43</v>
       </c>
       <c r="J45">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>40969</v>
+        <v>41334</v>
       </c>
       <c r="B46" s="5">
-        <v>0.12242335721854693</v>
+        <v>0.12340753509272845</v>
       </c>
       <c r="C46">
-        <v>77.31</v>
+        <v>78.790000000000006</v>
       </c>
       <c r="D46" s="6">
-        <v>1766.34</v>
+        <v>1809.89</v>
       </c>
       <c r="E46" s="3">
-        <v>15497446.065460045</v>
+        <v>14134806.42200999</v>
       </c>
       <c r="F46">
-        <v>14043512.45632006</v>
-      </c>
-      <c r="G46" s="7">
-        <v>166996.88047309549</v>
+        <v>14170701.095259912</v>
+      </c>
+      <c r="G46" s="8">
+        <v>171244.7502044444</v>
       </c>
       <c r="H46">
         <v>44</v>
@@ -6744,30 +6776,30 @@
         <v>44</v>
       </c>
       <c r="J46">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>41061</v>
+        <v>41426</v>
       </c>
       <c r="B47" s="5">
-        <v>0.1151869876757201</v>
+        <v>0.10781489378395515</v>
       </c>
       <c r="C47">
-        <v>77.72</v>
+        <v>79.39</v>
       </c>
       <c r="D47" s="6">
-        <v>1792.63</v>
+        <v>1909.5</v>
       </c>
       <c r="E47" s="3">
-        <v>14977735.816669993</v>
+        <v>15152795.289360065</v>
       </c>
       <c r="F47">
-        <v>15018251.755579978</v>
+        <v>14659586.103619989</v>
       </c>
       <c r="G47" s="8">
-        <v>173577.62041998119</v>
+        <v>183008.77049865527</v>
       </c>
       <c r="H47">
         <v>45</v>
@@ -6776,30 +6808,30 @@
         <v>45</v>
       </c>
       <c r="J47">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>41153</v>
+        <v>41518</v>
       </c>
       <c r="B48" s="5">
-        <v>0.10891739688980516</v>
+        <v>0.10046611051528406</v>
       </c>
       <c r="C48">
-        <v>77.959999999999994</v>
+        <v>79.73</v>
       </c>
       <c r="D48" s="6">
-        <v>1803.18</v>
+        <v>1919.4</v>
       </c>
       <c r="E48" s="3">
-        <v>14458087.665089957</v>
+        <v>14479998.465509923</v>
       </c>
       <c r="F48">
-        <v>15112252.017349947</v>
-      </c>
-      <c r="G48" s="8">
-        <v>176900.49539803842</v>
+        <v>15234391.763240039</v>
+      </c>
+      <c r="G48" s="7">
+        <v>187401.36404294043</v>
       </c>
       <c r="H48">
         <v>46</v>
@@ -6808,30 +6840,30 @@
         <v>46</v>
       </c>
       <c r="J48">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>41244</v>
+        <v>41609</v>
       </c>
       <c r="B49" s="5">
-        <v>0.10077125778851931</v>
+        <v>9.2254914086446455E-2</v>
       </c>
       <c r="C49">
-        <v>78.05</v>
+        <v>79.56</v>
       </c>
       <c r="D49" s="6">
-        <v>1793.94</v>
+        <v>1934.08</v>
       </c>
       <c r="E49" s="3">
-        <v>15191896.370710049</v>
+        <v>15058770.831699941</v>
       </c>
       <c r="F49">
-        <v>14873667.932340011</v>
-      </c>
-      <c r="G49" s="7">
-        <v>193940.00370888491</v>
+        <v>15316532.113509979</v>
+      </c>
+      <c r="G49" s="8">
+        <v>206284.11525395993</v>
       </c>
       <c r="H49">
         <v>47</v>
@@ -6840,30 +6872,30 @@
         <v>47</v>
       </c>
       <c r="J49">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>41334</v>
+        <v>41699</v>
       </c>
       <c r="B50" s="5">
-        <v>0.12340753509272845</v>
+        <v>0.1133998759372436</v>
       </c>
       <c r="C50">
-        <v>78.790000000000006</v>
+        <v>80.77</v>
       </c>
       <c r="D50" s="6">
-        <v>1809.89</v>
+        <v>2022.19</v>
       </c>
       <c r="E50" s="3">
-        <v>14134806.42200999</v>
+        <v>13488455.038109967</v>
       </c>
       <c r="F50">
-        <v>14170701.095259912</v>
+        <v>14759516.421540022</v>
       </c>
       <c r="G50" s="8">
-        <v>171244.7502044444</v>
+        <v>182282.85572104307</v>
       </c>
       <c r="H50">
         <v>48</v>
@@ -6872,30 +6904,30 @@
         <v>48</v>
       </c>
       <c r="J50">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>41426</v>
+        <v>41791</v>
       </c>
       <c r="B51" s="5">
-        <v>0.10781489378395515</v>
+        <v>9.9622264216509201E-2</v>
       </c>
       <c r="C51">
-        <v>79.39</v>
+        <v>81.61</v>
       </c>
       <c r="D51" s="6">
-        <v>1909.5</v>
+        <v>1888.1</v>
       </c>
       <c r="E51" s="3">
-        <v>15152795.289360065</v>
+        <v>14517356.825800007</v>
       </c>
       <c r="F51">
-        <v>14659586.103619989</v>
-      </c>
-      <c r="G51" s="8">
-        <v>183008.77049865527</v>
+        <v>15801662.153979912</v>
+      </c>
+      <c r="G51" s="7">
+        <v>189638.37946240322</v>
       </c>
       <c r="H51">
         <v>49</v>
@@ -6904,30 +6936,30 @@
         <v>49</v>
       </c>
       <c r="J51">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>41518</v>
+        <v>41883</v>
       </c>
       <c r="B52" s="5">
-        <v>0.10046611051528406</v>
+        <v>9.5515540393688453E-2</v>
       </c>
       <c r="C52">
-        <v>79.73</v>
+        <v>82.01</v>
       </c>
       <c r="D52" s="6">
-        <v>1919.4</v>
+        <v>1971.34</v>
       </c>
       <c r="E52" s="3">
-        <v>14479998.465509923</v>
+        <v>14939268.497809958</v>
       </c>
       <c r="F52">
-        <v>15234391.763240039</v>
-      </c>
-      <c r="G52" s="7">
-        <v>187401.36404294043</v>
+        <v>16777452.122189891</v>
+      </c>
+      <c r="G52" s="8">
+        <v>195558.67375589258</v>
       </c>
       <c r="H52">
         <v>50</v>
@@ -6936,30 +6968,30 @@
         <v>50</v>
       </c>
       <c r="J52">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>41609</v>
+        <v>41974</v>
       </c>
       <c r="B53" s="5">
-        <v>9.2254914086446455E-2</v>
+        <v>8.9039621556905632E-2</v>
       </c>
       <c r="C53">
-        <v>79.56</v>
+        <v>82.47</v>
       </c>
       <c r="D53" s="6">
-        <v>1934.08</v>
+        <v>2344.23</v>
       </c>
       <c r="E53" s="3">
-        <v>15058770.831699941</v>
+        <v>11911674.204890015</v>
       </c>
       <c r="F53">
-        <v>15316532.113509979</v>
+        <v>16690253.011470098</v>
       </c>
       <c r="G53" s="8">
-        <v>206284.11525395993</v>
+        <v>214109.09106066119</v>
       </c>
       <c r="H53">
         <v>51</v>
@@ -6968,30 +7000,30 @@
         <v>51</v>
       </c>
       <c r="J53">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>41699</v>
+        <v>42064</v>
       </c>
       <c r="B54" s="5">
-        <v>0.1133998759372436</v>
+        <v>0.10636027934841616</v>
       </c>
       <c r="C54">
-        <v>80.77</v>
+        <v>84.45</v>
       </c>
       <c r="D54" s="6">
-        <v>2022.19</v>
+        <v>2586.58</v>
       </c>
       <c r="E54" s="3">
-        <v>13488455.038109967</v>
+        <v>9539876.3453800157</v>
       </c>
       <c r="F54">
-        <v>14759516.421540022</v>
-      </c>
-      <c r="G54" s="8">
-        <v>182282.85572104307</v>
+        <v>14113338.45437995</v>
+      </c>
+      <c r="G54" s="7">
+        <v>187841.99665840552</v>
       </c>
       <c r="H54">
         <v>52</v>
@@ -7000,30 +7032,30 @@
         <v>52</v>
       </c>
       <c r="J54">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>41791</v>
+        <v>42156</v>
       </c>
       <c r="B55" s="5">
-        <v>9.9622264216509201E-2</v>
+        <v>9.9295053983362358E-2</v>
       </c>
       <c r="C55">
-        <v>81.61</v>
+        <v>85.21</v>
       </c>
       <c r="D55" s="6">
-        <v>1888.1</v>
+        <v>2554.94</v>
       </c>
       <c r="E55" s="3">
-        <v>14517356.825800007</v>
+        <v>9818197.554410005</v>
       </c>
       <c r="F55">
-        <v>15801662.153979912</v>
-      </c>
-      <c r="G55" s="7">
-        <v>189638.37946240322</v>
+        <v>13121908.811629988</v>
+      </c>
+      <c r="G55" s="8">
+        <v>195888.91740175121</v>
       </c>
       <c r="H55">
         <v>53</v>
@@ -7032,30 +7064,30 @@
         <v>53</v>
       </c>
       <c r="J55">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>41883</v>
+        <v>42248</v>
       </c>
       <c r="B56" s="5">
-        <v>9.5515540393688453E-2</v>
+        <v>9.5515216305070941E-2</v>
       </c>
       <c r="C56">
-        <v>82.01</v>
+        <v>86.39</v>
       </c>
       <c r="D56" s="6">
-        <v>1971.34</v>
+        <v>3073.12</v>
       </c>
       <c r="E56" s="3">
-        <v>14939268.497809958</v>
+        <v>8810397.2911099959</v>
       </c>
       <c r="F56">
-        <v>16777452.122189891</v>
+        <v>13904525.426080015</v>
       </c>
       <c r="G56" s="8">
-        <v>195558.67375589258</v>
+        <v>202886.98101223414</v>
       </c>
       <c r="H56">
         <v>54</v>
@@ -7064,30 +7096,30 @@
         <v>54</v>
       </c>
       <c r="J56">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>41974</v>
+        <v>42339</v>
       </c>
       <c r="B57" s="5">
-        <v>8.9039621556905632E-2</v>
+        <v>8.9193694923893091E-2</v>
       </c>
       <c r="C57">
-        <v>82.47</v>
+        <v>88.05</v>
       </c>
       <c r="D57" s="6">
-        <v>2344.23</v>
+        <v>3244.51</v>
       </c>
       <c r="E57" s="3">
-        <v>11911674.204890015</v>
+        <v>7849050.4745299742</v>
       </c>
       <c r="F57">
-        <v>16690253.011470098</v>
-      </c>
-      <c r="G57" s="8">
-        <v>214109.09106066119</v>
+        <v>12917826.779890023</v>
+      </c>
+      <c r="G57" s="7">
+        <v>218074.10492760915</v>
       </c>
       <c r="H57">
         <v>55</v>
@@ -7096,30 +7128,30 @@
         <v>55</v>
       </c>
       <c r="J57">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>42064</v>
+        <v>42430</v>
       </c>
       <c r="B58" s="5">
-        <v>0.10636027934841616</v>
+        <v>0.11524595751202009</v>
       </c>
       <c r="C58">
-        <v>84.45</v>
+        <v>91.18</v>
       </c>
       <c r="D58" s="6">
-        <v>2586.58</v>
+        <v>3145.26</v>
       </c>
       <c r="E58" s="3">
-        <v>9539876.3453800157</v>
+        <v>6582774.1590199992</v>
       </c>
       <c r="F58">
-        <v>14113338.45437995</v>
-      </c>
-      <c r="G58" s="7">
-        <v>187841.99665840552</v>
+        <v>10575666.487669993</v>
+      </c>
+      <c r="G58" s="8">
+        <v>191782.13832631495</v>
       </c>
       <c r="H58">
         <v>56</v>
@@ -7128,30 +7160,30 @@
         <v>56</v>
       </c>
       <c r="J58">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>42156</v>
+        <v>42522</v>
       </c>
       <c r="B59" s="5">
-        <v>9.9295053983362358E-2</v>
+        <v>9.4518457784037793E-2</v>
       </c>
       <c r="C59">
-        <v>85.21</v>
+        <v>92.54</v>
       </c>
       <c r="D59" s="6">
-        <v>2554.94</v>
+        <v>2991.68</v>
       </c>
       <c r="E59" s="3">
-        <v>9818197.554410005</v>
+        <v>7995775.0005699992</v>
       </c>
       <c r="F59">
-        <v>13121908.811629988</v>
+        <v>10971815.998529984</v>
       </c>
       <c r="G59" s="8">
-        <v>195888.91740175121</v>
+        <v>199892.39909796359</v>
       </c>
       <c r="H59">
         <v>57</v>
@@ -7160,30 +7192,30 @@
         <v>57</v>
       </c>
       <c r="J59">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>42248</v>
+        <v>42614</v>
       </c>
       <c r="B60" s="5">
-        <v>9.5515216305070941E-2</v>
+        <v>9.8403003194399569E-2</v>
       </c>
       <c r="C60">
-        <v>86.39</v>
+        <v>92.68</v>
       </c>
       <c r="D60" s="6">
-        <v>3073.12</v>
+        <v>2921.15</v>
       </c>
       <c r="E60" s="3">
-        <v>8810397.2911099959</v>
+        <v>8109061.3513299795</v>
       </c>
       <c r="F60">
-        <v>13904525.426080015</v>
-      </c>
-      <c r="G60" s="8">
-        <v>202886.98101223414</v>
+        <v>11523465.478219973</v>
+      </c>
+      <c r="G60" s="7">
+        <v>205900.37219315331</v>
       </c>
       <c r="H60">
         <v>58</v>
@@ -7192,30 +7224,30 @@
         <v>58</v>
       </c>
       <c r="J60">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>42339</v>
+        <v>42705</v>
       </c>
       <c r="B61" s="5">
-        <v>8.9193694923893091E-2</v>
+        <v>9.1794939493764799E-2</v>
       </c>
       <c r="C61">
-        <v>88.05</v>
+        <v>93.11</v>
       </c>
       <c r="D61" s="6">
-        <v>3244.51</v>
+        <v>3009.53</v>
       </c>
       <c r="E61" s="3">
-        <v>7849050.4745299742</v>
+        <v>9080730.4703600146</v>
       </c>
       <c r="F61">
-        <v>12917826.779890023</v>
-      </c>
-      <c r="G61" s="7">
-        <v>218074.10492760915</v>
+        <v>11818418.910499975</v>
+      </c>
+      <c r="G61" s="8">
+        <v>223914.09038256816</v>
       </c>
       <c r="H61">
         <v>59</v>
@@ -7224,30 +7256,30 @@
         <v>59</v>
       </c>
       <c r="J61">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="B62" s="5">
-        <v>0.11524595751202009</v>
+        <v>0.11671900943258416</v>
       </c>
       <c r="C62">
-        <v>91.18</v>
+        <v>95.46</v>
       </c>
       <c r="D62" s="6">
-        <v>3145.26</v>
+        <v>2943.49</v>
       </c>
       <c r="E62" s="3">
-        <v>6582774.1590199992</v>
+        <v>8801489.754619943</v>
       </c>
       <c r="F62">
-        <v>10575666.487669993</v>
+        <v>11300107.799649997</v>
       </c>
       <c r="G62" s="8">
-        <v>191782.13832631495</v>
+        <v>193740.59653470648</v>
       </c>
       <c r="H62">
         <v>60</v>
@@ -7256,30 +7288,30 @@
         <v>60</v>
       </c>
       <c r="J62">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="B63" s="5">
-        <v>9.4518457784037793E-2</v>
+        <v>0.10573445872940367</v>
       </c>
       <c r="C63">
-        <v>92.54</v>
+        <v>96.23</v>
       </c>
       <c r="D63" s="6">
-        <v>2991.68</v>
+        <v>2958.36</v>
       </c>
       <c r="E63" s="3">
-        <v>7995775.0005699992</v>
+        <v>9099040.1367600001</v>
       </c>
       <c r="F63">
-        <v>10971815.998529984</v>
-      </c>
-      <c r="G63" s="8">
-        <v>199892.39909796359</v>
+        <v>11539598.599199986</v>
+      </c>
+      <c r="G63" s="7">
+        <v>202490.25456262982</v>
       </c>
       <c r="H63">
         <v>61</v>
@@ -7288,30 +7320,30 @@
         <v>61</v>
       </c>
       <c r="J63">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="B64" s="5">
-        <v>9.8403003194399569E-2</v>
+        <v>0.10586684190096272</v>
       </c>
       <c r="C64">
-        <v>92.68</v>
+        <v>96.36</v>
       </c>
       <c r="D64" s="6">
-        <v>2921.15</v>
+        <v>2918.49</v>
       </c>
       <c r="E64" s="3">
-        <v>8109061.3513299795</v>
+        <v>9706759.63145997</v>
       </c>
       <c r="F64">
-        <v>11523465.478219973</v>
-      </c>
-      <c r="G64" s="7">
-        <v>205900.37219315331</v>
+        <v>11669253.76201004</v>
+      </c>
+      <c r="G64" s="8">
+        <v>209366.66421509537</v>
       </c>
       <c r="H64">
         <v>62</v>
@@ -7320,30 +7352,30 @@
         <v>62</v>
       </c>
       <c r="J64">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="B65" s="5">
-        <v>9.1794939493764799E-2</v>
+        <v>9.6315822247598035E-2</v>
       </c>
       <c r="C65">
-        <v>93.11</v>
+        <v>96.92</v>
       </c>
       <c r="D65" s="6">
-        <v>3009.53</v>
+        <v>2991.42</v>
       </c>
       <c r="E65" s="3">
-        <v>9080730.4703600146</v>
+        <v>10414570.787549987</v>
       </c>
       <c r="F65">
-        <v>11818418.910499975</v>
+        <v>11562097.716989933</v>
       </c>
       <c r="G65" s="8">
-        <v>223914.09038256816</v>
+        <v>227058.48468756833</v>
       </c>
       <c r="H65">
         <v>63</v>
@@ -7352,30 +7384,30 @@
         <v>63</v>
       </c>
       <c r="J65">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="B66" s="5">
-        <v>0.11671900943258416</v>
+        <v>0.11958539104958014</v>
       </c>
       <c r="C66">
-        <v>95.46</v>
+        <v>98.45</v>
       </c>
       <c r="D66" s="6">
-        <v>2943.49</v>
+        <v>2852.46</v>
       </c>
       <c r="E66" s="3">
-        <v>8801489.754619943</v>
+        <v>9717607.7149499916</v>
       </c>
       <c r="F66">
-        <v>11300107.799649997</v>
-      </c>
-      <c r="G66" s="8">
-        <v>193740.59653470648</v>
+        <v>11452620.621679962</v>
+      </c>
+      <c r="G66" s="7">
+        <v>197176.58134961972</v>
       </c>
       <c r="H66">
         <v>64</v>
@@ -7384,30 +7416,30 @@
         <v>64</v>
       </c>
       <c r="J66">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="B67" s="5">
-        <v>0.10573445872940367</v>
+        <v>0.10627921322588804</v>
       </c>
       <c r="C67">
-        <v>96.23</v>
+        <v>99.31</v>
       </c>
       <c r="D67" s="6">
-        <v>2958.36</v>
+        <v>2893.22</v>
       </c>
       <c r="E67" s="3">
-        <v>9099040.1367600001</v>
+        <v>10837880.19828002</v>
       </c>
       <c r="F67">
-        <v>11539598.599199986</v>
-      </c>
-      <c r="G67" s="7">
-        <v>202490.25456262982</v>
+        <v>12977845.502239985</v>
+      </c>
+      <c r="G67" s="8">
+        <v>208084.23827760434</v>
       </c>
       <c r="H67">
         <v>65</v>
@@ -7416,30 +7448,30 @@
         <v>65</v>
       </c>
       <c r="J67">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B68" s="5">
-        <v>0.10586684190096272</v>
+        <v>0.10228970301270797</v>
       </c>
       <c r="C68">
-        <v>96.36</v>
+        <v>99.47</v>
       </c>
       <c r="D68" s="6">
-        <v>2918.49</v>
+        <v>3037.8</v>
       </c>
       <c r="E68" s="3">
-        <v>9706759.63145997</v>
+        <v>10829295.325970031</v>
       </c>
       <c r="F68">
-        <v>11669253.76201004</v>
+        <v>12975938.930169994</v>
       </c>
       <c r="G68" s="8">
-        <v>209366.66421509537</v>
+        <v>215046.21286935752</v>
       </c>
       <c r="H68">
         <v>66</v>
@@ -7448,30 +7480,30 @@
         <v>66</v>
       </c>
       <c r="J68">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B69" s="5">
-        <v>9.6315822247598035E-2</v>
+        <v>0.10267071503612621</v>
       </c>
       <c r="C69">
-        <v>96.92</v>
+        <v>100</v>
       </c>
       <c r="D69" s="6">
-        <v>2991.42</v>
+        <v>3212.48</v>
       </c>
       <c r="E69" s="3">
-        <v>10414570.787549987</v>
+        <v>10519994.158959972</v>
       </c>
       <c r="F69">
-        <v>11562097.716989933</v>
-      </c>
-      <c r="G69" s="8">
-        <v>227058.48468756833</v>
+        <v>13824162.13005993</v>
+      </c>
+      <c r="G69" s="7">
+        <v>233292.96750341833</v>
       </c>
       <c r="H69">
         <v>67</v>
@@ -7480,30 +7512,30 @@
         <v>67</v>
       </c>
       <c r="J69">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B70" s="5">
-        <v>0.11958539104958014</v>
+        <v>0.12713944925633811</v>
       </c>
       <c r="C70">
-        <v>98.45</v>
+        <v>101.62</v>
       </c>
       <c r="D70" s="6">
-        <v>2852.46</v>
+        <v>3125.34</v>
       </c>
       <c r="E70" s="3">
-        <v>9717607.7149499916</v>
+        <v>9594032.0007699933</v>
       </c>
       <c r="F70">
-        <v>11452620.621679962</v>
-      </c>
-      <c r="G70" s="7">
-        <v>197176.58134961972</v>
+        <v>12554546.41888997</v>
+      </c>
+      <c r="G70" s="8">
+        <v>203021.42808284517</v>
       </c>
       <c r="H70">
         <v>68</v>
@@ -7512,30 +7544,30 @@
         <v>68</v>
       </c>
       <c r="J70">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B71" s="5">
-        <v>0.10627921322588804</v>
+        <v>0.11043429820122569</v>
       </c>
       <c r="C71">
-        <v>99.31</v>
+        <v>102.71</v>
       </c>
       <c r="D71" s="6">
-        <v>2893.22</v>
+        <v>3256.02</v>
       </c>
       <c r="E71" s="3">
-        <v>10837880.19828002</v>
+        <v>10707523.548999999</v>
       </c>
       <c r="F71">
-        <v>12977845.502239985</v>
+        <v>13300621.23036002</v>
       </c>
       <c r="G71" s="8">
-        <v>208084.23827760434</v>
+        <v>214490.6939274953</v>
       </c>
       <c r="H71">
         <v>69</v>
@@ -7544,30 +7576,30 @@
         <v>69</v>
       </c>
       <c r="J71">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B72" s="5">
-        <v>0.10228970301270797</v>
+        <v>0.10592944414641535</v>
       </c>
       <c r="C72">
-        <v>99.47</v>
+        <v>103.26</v>
       </c>
       <c r="D72" s="6">
-        <v>3037.8</v>
+        <v>3399.62</v>
       </c>
       <c r="E72" s="3">
-        <v>10829295.325970031</v>
+        <v>9587439.911940001</v>
       </c>
       <c r="F72">
-        <v>12975938.930169994</v>
-      </c>
-      <c r="G72" s="8">
-        <v>215046.21286935752</v>
+        <v>13678465.218060005</v>
+      </c>
+      <c r="G72" s="7">
+        <v>222545.87120284169</v>
       </c>
       <c r="H72">
         <v>70</v>
@@ -7576,30 +7608,30 @@
         <v>70</v>
       </c>
       <c r="J72">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B73" s="5">
-        <v>0.10267071503612621</v>
+        <v>0.10428984835288377</v>
       </c>
       <c r="C73">
-        <v>100</v>
+        <v>103.8</v>
       </c>
       <c r="D73" s="6">
-        <v>3212.48</v>
+        <v>3383</v>
       </c>
       <c r="E73" s="3">
-        <v>10519994.158959972</v>
+        <v>9600172.4030900002</v>
       </c>
       <c r="F73">
-        <v>13824162.13005993</v>
-      </c>
-      <c r="G73" s="7">
-        <v>233292.96750341833</v>
+        <v>13168991.404779982</v>
+      </c>
+      <c r="G73" s="8">
+        <v>241371.21655283868</v>
       </c>
       <c r="H73">
         <v>71</v>
@@ -7608,30 +7640,30 @@
         <v>71</v>
       </c>
       <c r="J73">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B74" s="5">
-        <v>0.12713944925633811</v>
+        <v>0.12597263432541733</v>
       </c>
       <c r="C74">
-        <v>101.62</v>
+        <v>105.53</v>
       </c>
       <c r="D74" s="6">
-        <v>3125.34</v>
+        <v>3870.01</v>
       </c>
       <c r="E74" s="3">
-        <v>9594032.0007699933</v>
+        <v>8800354.8941699304</v>
       </c>
       <c r="F74">
-        <v>12554546.41888997</v>
+        <v>11885756.561699999</v>
       </c>
       <c r="G74" s="8">
-        <v>203021.42808284517</v>
+        <v>205500.29788914035</v>
       </c>
       <c r="H74">
         <v>72</v>
@@ -7640,30 +7672,30 @@
         <v>72</v>
       </c>
       <c r="J74">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B75" s="5">
-        <v>0.11043429820122569</v>
+        <v>0.24275399906285283</v>
       </c>
       <c r="C75">
-        <v>102.71</v>
+        <v>104.97</v>
       </c>
       <c r="D75" s="6">
-        <v>3256.02</v>
+        <v>3693</v>
       </c>
       <c r="E75" s="3">
-        <v>10707523.548999999</v>
+        <v>6377268.0572699634</v>
       </c>
       <c r="F75">
-        <v>13300621.23036002</v>
-      </c>
-      <c r="G75" s="8">
-        <v>214490.6939274953</v>
+        <v>8872744.1382999998</v>
+      </c>
+      <c r="G75" s="7">
+        <v>180494.32810719276</v>
       </c>
       <c r="H75">
         <v>73</v>
@@ -7672,30 +7704,30 @@
         <v>73</v>
       </c>
       <c r="J75">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B76" s="5">
-        <v>0.10592944414641535</v>
+        <v>0.20835214369915689</v>
       </c>
       <c r="C76">
-        <v>103.26</v>
+        <v>105.29</v>
       </c>
       <c r="D76" s="6">
-        <v>3399.62</v>
+        <v>3749.86</v>
       </c>
       <c r="E76" s="3">
-        <v>9587439.911940001</v>
+        <v>7681628.6445899997</v>
       </c>
       <c r="F76">
-        <v>13678465.218060005</v>
-      </c>
-      <c r="G76" s="7">
-        <v>222545.87120284169</v>
+        <v>10693209.321599999</v>
+      </c>
+      <c r="G76" s="8">
+        <v>202513.5145748404</v>
       </c>
       <c r="H76">
         <v>74</v>
@@ -7704,30 +7736,25 @@
         <v>74</v>
       </c>
       <c r="J76">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B77" s="5">
-        <v>0.10428984835288377</v>
+        <v>0.15917654736908524</v>
       </c>
       <c r="C77">
-        <v>103.8</v>
+        <v>105.48</v>
       </c>
       <c r="D77" s="6">
-        <v>3383</v>
-      </c>
-      <c r="E77" s="3">
-        <v>9600172.4030900002</v>
-      </c>
+        <v>3468.5</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77">
-        <v>13168991.404779982</v>
-      </c>
-      <c r="G77" s="8">
-        <v>241371.21655283868</v>
+        <v>12036951.985190053</v>
       </c>
       <c r="H77">
         <v>75</v>
@@ -7736,129 +7763,6 @@
         <v>75</v>
       </c>
       <c r="J77">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>43891</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.12597263432541733</v>
-      </c>
-      <c r="C78">
-        <v>105.53</v>
-      </c>
-      <c r="D78" s="6">
-        <v>3870.01</v>
-      </c>
-      <c r="E78" s="3">
-        <v>8800354.8941699304</v>
-      </c>
-      <c r="F78">
-        <v>11885756.561699999</v>
-      </c>
-      <c r="G78" s="8">
-        <v>205500.29788914035</v>
-      </c>
-      <c r="H78">
-        <v>76</v>
-      </c>
-      <c r="I78">
-        <v>76</v>
-      </c>
-      <c r="J78">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.24275399906285283</v>
-      </c>
-      <c r="C79">
-        <v>104.97</v>
-      </c>
-      <c r="D79" s="6">
-        <v>3693</v>
-      </c>
-      <c r="E79" s="3">
-        <v>6377268.0572699634</v>
-      </c>
-      <c r="F79">
-        <v>8872744.1382999998</v>
-      </c>
-      <c r="G79" s="7">
-        <v>180494.32810719276</v>
-      </c>
-      <c r="H79">
-        <v>77</v>
-      </c>
-      <c r="I79">
-        <v>77</v>
-      </c>
-      <c r="J79">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>44075</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.20835214369915689</v>
-      </c>
-      <c r="C80">
-        <v>105.29</v>
-      </c>
-      <c r="D80" s="6">
-        <v>3749.86</v>
-      </c>
-      <c r="E80" s="3">
-        <v>7681628.6445899997</v>
-      </c>
-      <c r="F80">
-        <v>10693209.321599999</v>
-      </c>
-      <c r="G80" s="8">
-        <v>202513.5145748404</v>
-      </c>
-      <c r="H80">
-        <v>78</v>
-      </c>
-      <c r="I80">
-        <v>78</v>
-      </c>
-      <c r="J80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>44166</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.15917654736908524</v>
-      </c>
-      <c r="C81">
-        <v>105.48</v>
-      </c>
-      <c r="D81" s="6">
-        <v>3468.5</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81">
-        <v>12036951.985190053</v>
-      </c>
-      <c r="H81">
-        <v>79</v>
-      </c>
-      <c r="I81">
-        <v>79</v>
-      </c>
-      <c r="J81">
         <v>79</v>
       </c>
     </row>
@@ -7879,6 +7783,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007417CAAD3D4CC5408E07FA223EE9CF92" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="de111c8a5aec253deda3dfe899a9f548">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="37337b4d-9f4b-4af9-a987-3c7751e30e6b" xmlns:ns4="95780af1-cc00-46be-b649-c4555d42f645" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59651f371eb86c92c606e999117fff74" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8098,15 +8011,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4789F0D4-1CDA-4FA4-8EC0-1495E0100034}">
   <ds:schemaRefs>
@@ -8116,6 +8020,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C2D3E66-E8BD-46C0-B729-E69E213EEE0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8133,14 +8047,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/modified_variables_file.xlsx
+++ b/modified_variables_file.xlsx
@@ -5490,7 +5490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7774,21 +7774,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8012,19 +8012,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4789F0D4-1CDA-4FA4-8EC0-1495E0100034}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4789F0D4-1CDA-4FA4-8EC0-1495E0100034}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/modified_variables_file.xlsx
+++ b/modified_variables_file.xlsx
@@ -18,14 +18,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,10 +54,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,12 +93,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,9 +117,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -245,7 +247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$I$30:$I$76</c:f>
+              <c:f>Hoja1!$I$34:$I$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -395,7 +397,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$30:$E$76</c:f>
+              <c:f>Hoja1!$E$34:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="47"/>
@@ -811,7 +813,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$J$30:$J$77</c:f>
+              <c:f>Hoja1!$J$34:$J$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -964,7 +966,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$F$30:$F$77</c:f>
+              <c:f>Hoja1!$F$34:$F$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1439,7 +1441,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$I$2:$I$77</c:f>
+              <c:f>Hoja1!$I$6:$I$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
@@ -1676,7 +1678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$77</c:f>
+              <c:f>Hoja1!$C$6:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
@@ -2257,7 +2259,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$H$14:$H$76</c:f>
+              <c:f>Hoja1!$H$18:$H$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -2455,7 +2457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$G$14:$G$76</c:f>
+              <c:f>Hoja1!$G$18:$G$80</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="63"/>
@@ -5068,13 +5070,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5100,13 +5102,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5130,13 +5132,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5160,13 +5162,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5486,11 +5488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:H1"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,2241 +5530,2301 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>37316</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.19002817036418493</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2282.33</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
+      <c r="A2" s="11">
+        <v>36951</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.20020719409292198</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="13">
+        <v>2278.7800000000002</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>37408</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.17749709473291714</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2364.25</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
+      <c r="A3" s="11">
+        <v>37043</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.18162707311028053</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="13">
+        <v>2305.66</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>37500</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.17946462005377087</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2751.23</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
+      <c r="A4" s="11">
+        <v>37135</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.17762326599476339</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="13">
+        <v>2328.23</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>37591</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.1574563542938297</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2814.89</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
+      <c r="A5" s="11">
+        <v>37226</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.16625328073072651</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="13">
+        <v>2306.9</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>37681</v>
+        <v>37316</v>
       </c>
       <c r="B6" s="5">
-        <v>0.17792904468551132</v>
-      </c>
-      <c r="C6">
-        <v>51.51</v>
+        <v>0.19002817036418493</v>
       </c>
       <c r="D6" s="6">
-        <v>2959.01</v>
+        <v>2282.33</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>37773</v>
+        <v>37408</v>
       </c>
       <c r="B7" s="5">
-        <v>0.16998698192394357</v>
-      </c>
-      <c r="C7">
-        <v>52.33</v>
+        <v>0.17749709473291714</v>
       </c>
       <c r="D7" s="6">
-        <v>2826.95</v>
+        <v>2364.25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>37865</v>
+        <v>37500</v>
       </c>
       <c r="B8" s="5">
-        <v>0.16968459987546719</v>
-      </c>
-      <c r="C8">
-        <v>52.53</v>
+        <v>0.17946462005377087</v>
       </c>
       <c r="D8" s="6">
-        <v>2840.08</v>
+        <v>2751.23</v>
       </c>
       <c r="E8" s="3"/>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
         <v>6</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>37956</v>
+        <v>37591</v>
       </c>
       <c r="B9" s="5">
-        <v>0.14613589713043867</v>
-      </c>
-      <c r="C9">
-        <v>53.07</v>
+        <v>0.1574563542938297</v>
       </c>
       <c r="D9" s="6">
-        <v>2807.2</v>
+        <v>2814.89</v>
       </c>
       <c r="E9" s="3"/>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
         <v>7</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>38047</v>
+        <v>37681</v>
       </c>
       <c r="B10" s="5">
-        <v>0.1714701170209941</v>
+        <v>0.17792904468551132</v>
       </c>
       <c r="C10">
-        <v>54.71</v>
+        <v>51.51</v>
       </c>
       <c r="D10" s="6">
-        <v>2670.8</v>
+        <v>2959.01</v>
       </c>
       <c r="E10" s="3"/>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
         <v>8</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>38139</v>
+        <v>37773</v>
       </c>
       <c r="B11" s="5">
-        <v>0.15692797729979233</v>
+        <v>0.16998698192394357</v>
       </c>
       <c r="C11">
-        <v>55.51</v>
+        <v>52.33</v>
       </c>
       <c r="D11" s="6">
-        <v>2716.56</v>
+        <v>2826.95</v>
       </c>
       <c r="E11" s="3"/>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <v>9</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>38231</v>
+        <v>37865</v>
       </c>
       <c r="B12" s="5">
-        <v>0.14824469062409487</v>
+        <v>0.16968459987546719</v>
       </c>
       <c r="C12">
-        <v>55.67</v>
+        <v>52.53</v>
       </c>
       <c r="D12" s="6">
-        <v>2552.7800000000002</v>
+        <v>2840.08</v>
       </c>
       <c r="E12" s="3"/>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
         <v>10</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>38322</v>
+        <v>37956</v>
       </c>
       <c r="B13" s="5">
-        <v>0.13550185736712711</v>
+        <v>0.14613589713043867</v>
       </c>
       <c r="C13">
-        <v>55.99</v>
+        <v>53.07</v>
       </c>
       <c r="D13" s="6">
-        <v>2411.37</v>
+        <v>2807.2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
         <v>11</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>38412</v>
+        <v>38047</v>
       </c>
       <c r="B14" s="5">
-        <v>0.15764188876926374</v>
+        <v>0.1714701170209941</v>
       </c>
       <c r="C14">
-        <v>57.46</v>
+        <v>54.71</v>
       </c>
       <c r="D14" s="6">
-        <v>2353.71</v>
+        <v>2670.8</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="G14" s="7">
-        <v>119348.21424077044</v>
-      </c>
       <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
         <v>12</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>38504</v>
+        <v>38139</v>
       </c>
       <c r="B15" s="5">
-        <v>0.14119064150547048</v>
+        <v>0.15692797729979233</v>
       </c>
       <c r="C15">
-        <v>58.18</v>
+        <v>55.51</v>
       </c>
       <c r="D15" s="6">
-        <v>2331.79</v>
+        <v>2716.56</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="G15" s="7">
-        <v>125126.32036160388</v>
-      </c>
       <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
         <v>13</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>38596</v>
+        <v>38231</v>
       </c>
       <c r="B16" s="5">
-        <v>0.13767138647126997</v>
+        <v>0.14824469062409487</v>
       </c>
       <c r="C16">
-        <v>58.46</v>
+        <v>55.67</v>
       </c>
       <c r="D16" s="6">
-        <v>2294.52</v>
+        <v>2552.7800000000002</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="G16" s="7">
-        <v>128645.77495307969</v>
-      </c>
       <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
         <v>14</v>
-      </c>
-      <c r="I16">
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>38687</v>
+        <v>38322</v>
       </c>
       <c r="B17" s="5">
-        <v>0.12041666927171187</v>
+        <v>0.13550185736712711</v>
       </c>
       <c r="C17">
-        <v>58.7</v>
+        <v>55.99</v>
       </c>
       <c r="D17" s="6">
-        <v>2278.91</v>
+        <v>2411.37</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="G17" s="7">
-        <v>141732.69044454599</v>
-      </c>
       <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
         <v>15</v>
-      </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>38777</v>
+        <v>38412</v>
       </c>
       <c r="B18" s="5">
-        <v>0.14052805468519558</v>
+        <v>0.15764188876926374</v>
       </c>
       <c r="C18">
-        <v>59.83</v>
+        <v>57.46</v>
       </c>
       <c r="D18" s="6">
-        <v>2262.36</v>
+        <v>2353.71</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="7">
-        <v>127132.28112469544</v>
+        <v>119348.21424077044</v>
       </c>
       <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
         <v>16</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>38869</v>
+        <v>38504</v>
       </c>
       <c r="B19" s="5">
-        <v>0.12812229961965466</v>
+        <v>0.14119064150547048</v>
       </c>
       <c r="C19">
-        <v>60.48</v>
+        <v>58.18</v>
       </c>
       <c r="D19" s="6">
-        <v>2542.2399999999998</v>
+        <v>2331.79</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="7">
-        <v>131831.67141360854</v>
+        <v>125126.32036160388</v>
       </c>
       <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
         <v>17</v>
-      </c>
-      <c r="I19">
-        <v>17</v>
-      </c>
-      <c r="J19">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>38961</v>
+        <v>38596</v>
       </c>
       <c r="B20" s="5">
-        <v>0.12686658892632471</v>
+        <v>0.13767138647126997</v>
       </c>
       <c r="C20">
-        <v>61.14</v>
+        <v>58.46</v>
       </c>
       <c r="D20" s="6">
-        <v>2398.88</v>
+        <v>2294.52</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="7">
-        <v>138473.57647509291</v>
+        <v>128645.77495307969</v>
       </c>
       <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
         <v>18</v>
-      </c>
-      <c r="I20">
-        <v>18</v>
-      </c>
-      <c r="J20">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>39052</v>
+        <v>38687</v>
       </c>
       <c r="B21" s="5">
-        <v>0.12130070282961647</v>
+        <v>0.12041666927171187</v>
       </c>
       <c r="C21">
-        <v>61.33</v>
+        <v>58.7</v>
       </c>
       <c r="D21" s="6">
-        <v>2261.33526315789</v>
+        <v>2278.91</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="7">
-        <v>151997.47098660312</v>
+        <v>141732.69044454599</v>
       </c>
       <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
         <v>19</v>
-      </c>
-      <c r="I21">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>39142</v>
+        <v>38777</v>
       </c>
       <c r="B22" s="5">
-        <v>0.13275955793054467</v>
+        <v>0.14052805468519558</v>
       </c>
       <c r="C22">
-        <v>63.29</v>
+        <v>59.83</v>
       </c>
       <c r="D22" s="6">
-        <v>2201.39</v>
+        <v>2262.36</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="7">
-        <v>135593.03714640398</v>
+        <v>127132.28112469544</v>
       </c>
       <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
         <v>20</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-      <c r="J22">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>39234</v>
+        <v>38869</v>
       </c>
       <c r="B23" s="5">
-        <v>0.11482078851156449</v>
+        <v>0.12812229961965466</v>
       </c>
       <c r="C23">
-        <v>64.12</v>
+        <v>60.48</v>
       </c>
       <c r="D23" s="6">
-        <v>1923.76</v>
+        <v>2542.2399999999998</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="7">
-        <v>140734.41132912389</v>
+        <v>131831.67141360854</v>
       </c>
       <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
         <v>21</v>
-      </c>
-      <c r="I23">
-        <v>21</v>
-      </c>
-      <c r="J23">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>39326</v>
+        <v>38961</v>
       </c>
       <c r="B24" s="5">
-        <v>0.10998376929415855</v>
+        <v>0.12686658892632471</v>
       </c>
       <c r="C24">
-        <v>64.2</v>
+        <v>61.14</v>
       </c>
       <c r="D24" s="6">
-        <v>2117.0500000000002</v>
+        <v>2398.88</v>
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="7">
-        <v>147975.39601032983</v>
+        <v>138473.57647509291</v>
       </c>
       <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
         <v>22</v>
-      </c>
-      <c r="I24">
-        <v>22</v>
-      </c>
-      <c r="J24">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>39417</v>
+        <v>39052</v>
       </c>
       <c r="B25" s="5">
-        <v>9.78031036101078E-2</v>
+        <v>0.12130070282961647</v>
       </c>
       <c r="C25">
-        <v>64.819999999999993</v>
+        <v>61.33</v>
       </c>
       <c r="D25" s="6">
-        <v>2014.2014999999999</v>
+        <v>2261.33526315789</v>
       </c>
       <c r="E25" s="3"/>
       <c r="G25" s="7">
-        <v>162154.15551414233</v>
+        <v>151997.47098660312</v>
       </c>
       <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
         <v>23</v>
-      </c>
-      <c r="I25">
-        <v>23</v>
-      </c>
-      <c r="J25">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>39508</v>
+        <v>39142</v>
       </c>
       <c r="B26" s="5">
-        <v>0.12299887504171521</v>
+        <v>0.13275955793054467</v>
       </c>
       <c r="C26">
-        <v>67.040000000000006</v>
+        <v>63.29</v>
       </c>
       <c r="D26" s="6">
-        <v>1846.9</v>
+        <v>2201.39</v>
       </c>
       <c r="E26" s="3"/>
       <c r="G26" s="7">
-        <v>142466.85763797181</v>
+        <v>135593.03714640398</v>
       </c>
       <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
         <v>24</v>
-      </c>
-      <c r="I26">
-        <v>24</v>
-      </c>
-      <c r="J26">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>39600</v>
+        <v>39234</v>
       </c>
       <c r="B27" s="5">
-        <v>0.11574609434955944</v>
+        <v>0.11482078851156449</v>
       </c>
       <c r="C27">
-        <v>68.73</v>
+        <v>64.12</v>
       </c>
       <c r="D27" s="6">
-        <v>1712.28</v>
+        <v>1923.76</v>
       </c>
       <c r="E27" s="3"/>
       <c r="G27" s="7">
-        <v>147479.82166771073</v>
+        <v>140734.41132912389</v>
       </c>
       <c r="H27">
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
         <v>25</v>
-      </c>
-      <c r="I27">
-        <v>25</v>
-      </c>
-      <c r="J27">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>39692</v>
+        <v>39326</v>
       </c>
       <c r="B28" s="5">
-        <v>0.11532218160867323</v>
+        <v>0.10998376929415855</v>
       </c>
       <c r="C28">
-        <v>69.06</v>
+        <v>64.2</v>
       </c>
       <c r="D28" s="6">
-        <v>2066.04</v>
+        <v>2117.0500000000002</v>
       </c>
       <c r="E28" s="3"/>
       <c r="G28" s="7">
-        <v>152924.9818553034</v>
+        <v>147975.39601032983</v>
       </c>
       <c r="H28">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>22</v>
+      </c>
+      <c r="J28">
         <v>26</v>
-      </c>
-      <c r="I28">
-        <v>26</v>
-      </c>
-      <c r="J28">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>39783</v>
+        <v>39417</v>
       </c>
       <c r="B29" s="5">
-        <v>0.10745607076845977</v>
+        <v>9.78031036101078E-2</v>
       </c>
       <c r="C29">
-        <v>69.8</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="D29" s="6">
-        <v>2252.7199999999998</v>
+        <v>2014.2014999999999</v>
       </c>
       <c r="E29" s="3"/>
       <c r="G29" s="7">
-        <v>162841.33883901406</v>
+        <v>162154.15551414233</v>
       </c>
       <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
         <v>27</v>
-      </c>
-      <c r="I29">
-        <v>27</v>
-      </c>
-      <c r="J29">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>39873</v>
+        <v>39508</v>
       </c>
       <c r="B30" s="5">
-        <v>0.13995148046189504</v>
+        <v>0.12299887504171521</v>
       </c>
       <c r="C30">
-        <v>71.150000000000006</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="D30" s="6">
-        <v>2477.21</v>
-      </c>
-      <c r="E30" s="3">
-        <v>7577147.62366</v>
-      </c>
-      <c r="F30">
-        <v>7972761.3206599671</v>
-      </c>
+        <v>1846.9</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="G30" s="7">
-        <v>142871.53647526138</v>
+        <v>142466.85763797181</v>
       </c>
       <c r="H30">
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30">
         <v>28</v>
-      </c>
-      <c r="I30">
-        <v>28</v>
-      </c>
-      <c r="J30">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>39965</v>
+        <v>39600</v>
       </c>
       <c r="B31" s="5">
-        <v>0.12783436286059191</v>
+        <v>0.11574609434955944</v>
       </c>
       <c r="C31">
-        <v>71.349999999999994</v>
+        <v>68.73</v>
       </c>
       <c r="D31" s="6">
-        <v>2090.04</v>
-      </c>
-      <c r="E31" s="3">
-        <v>7908172.8902599998</v>
-      </c>
-      <c r="F31">
-        <v>7601266.3358100224</v>
-      </c>
-      <c r="G31" s="8">
-        <v>148238.14553112964</v>
+        <v>1712.28</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="G31" s="7">
+        <v>147479.82166771073</v>
       </c>
       <c r="H31">
+        <v>25</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
         <v>29</v>
-      </c>
-      <c r="I31">
-        <v>29</v>
-      </c>
-      <c r="J31">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>40057</v>
+        <v>39692</v>
       </c>
       <c r="B32" s="5">
-        <v>0.1295934282754965</v>
+        <v>0.11532218160867323</v>
       </c>
       <c r="C32">
-        <v>71.28</v>
+        <v>69.06</v>
       </c>
       <c r="D32" s="6">
-        <v>1980.77</v>
-      </c>
-      <c r="E32" s="3">
-        <v>8368053.1252899822</v>
-      </c>
-      <c r="F32">
-        <v>8468969.2623700071</v>
-      </c>
-      <c r="G32" s="8">
-        <v>153542.51990888026</v>
+        <v>2066.04</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="G32" s="7">
+        <v>152924.9818553034</v>
       </c>
       <c r="H32">
+        <v>26</v>
+      </c>
+      <c r="I32">
+        <v>26</v>
+      </c>
+      <c r="J32">
         <v>30</v>
-      </c>
-      <c r="I32">
-        <v>30</v>
-      </c>
-      <c r="J32">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>40148</v>
+        <v>39783</v>
       </c>
       <c r="B33" s="5">
-        <v>0.12263656053454949</v>
+        <v>0.10745607076845977</v>
       </c>
       <c r="C33">
-        <v>71.2</v>
+        <v>69.8</v>
       </c>
       <c r="D33" s="6">
-        <v>2017.05</v>
-      </c>
-      <c r="E33" s="3">
-        <v>8992953.0709800199</v>
-      </c>
-      <c r="F33">
-        <v>8848135.9086900055</v>
-      </c>
+        <v>2252.7199999999998</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="G33" s="7">
-        <v>167963.79808472874</v>
+        <v>162841.33883901406</v>
       </c>
       <c r="H33">
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>27</v>
+      </c>
+      <c r="J33">
         <v>31</v>
-      </c>
-      <c r="I33">
-        <v>31</v>
-      </c>
-      <c r="J33">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>40238</v>
+        <v>39873</v>
       </c>
       <c r="B34" s="5">
-        <v>0.13699653964980321</v>
+        <v>0.13995148046189504</v>
       </c>
       <c r="C34">
-        <v>72.459999999999994</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="D34" s="6">
-        <v>1909.1</v>
+        <v>2477.21</v>
       </c>
       <c r="E34" s="3">
-        <v>9120492.836740002</v>
+        <v>7577147.62366</v>
       </c>
       <c r="F34">
-        <v>8768072.3598799724</v>
-      </c>
-      <c r="G34" s="8">
-        <v>147811.68552463484</v>
+        <v>7972761.3206599671</v>
+      </c>
+      <c r="G34" s="7">
+        <v>142871.53647526138</v>
       </c>
       <c r="H34">
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <v>28</v>
+      </c>
+      <c r="J34">
         <v>32</v>
-      </c>
-      <c r="I34">
-        <v>32</v>
-      </c>
-      <c r="J34">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>40330</v>
+        <v>39965</v>
       </c>
       <c r="B35" s="5">
-        <v>0.12668325376614642</v>
+        <v>0.12783436286059191</v>
       </c>
       <c r="C35">
-        <v>72.95</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="D35" s="6">
-        <v>1925.9</v>
+        <v>2090.04</v>
       </c>
       <c r="E35" s="3">
-        <v>10064936.637559984</v>
+        <v>7908172.8902599998</v>
       </c>
       <c r="F35">
-        <v>9427708.6424900424</v>
+        <v>7601266.3358100224</v>
       </c>
       <c r="G35" s="8">
-        <v>155186.83717420479</v>
+        <v>148238.14553112964</v>
       </c>
       <c r="H35">
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <v>29</v>
+      </c>
+      <c r="J35">
         <v>33</v>
-      </c>
-      <c r="I35">
-        <v>33</v>
-      </c>
-      <c r="J35">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>40422</v>
+        <v>40057</v>
       </c>
       <c r="B36" s="5">
-        <v>0.12349716553779323</v>
+        <v>0.1295934282754965</v>
       </c>
       <c r="C36">
-        <v>72.900000000000006</v>
+        <v>71.28</v>
       </c>
       <c r="D36" s="6">
-        <v>1805.6</v>
+        <v>1980.77</v>
       </c>
       <c r="E36" s="3">
-        <v>9720522.4951199926</v>
+        <v>8368053.1252899822</v>
       </c>
       <c r="F36">
-        <v>10892965.209259972</v>
-      </c>
-      <c r="G36" s="7">
-        <v>159996.88084263631</v>
+        <v>8468969.2623700071</v>
+      </c>
+      <c r="G36" s="8">
+        <v>153542.51990888026</v>
       </c>
       <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>30</v>
+      </c>
+      <c r="J36">
         <v>34</v>
-      </c>
-      <c r="I36">
-        <v>34</v>
-      </c>
-      <c r="J36">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>40513</v>
+        <v>40148</v>
       </c>
       <c r="B37" s="5">
-        <v>0.11028935924573481</v>
+        <v>0.12263656053454949</v>
       </c>
       <c r="C37">
-        <v>73.45</v>
+        <v>71.2</v>
       </c>
       <c r="D37" s="6">
-        <v>1925.86</v>
+        <v>2017.05</v>
       </c>
       <c r="E37" s="3">
-        <v>10807384.431020029</v>
+        <v>8992953.0709800199</v>
       </c>
       <c r="F37">
-        <v>11396809.478160018</v>
-      </c>
-      <c r="G37" s="8">
-        <v>177155.596458524</v>
+        <v>8848135.9086900055</v>
+      </c>
+      <c r="G37" s="7">
+        <v>167963.79808472874</v>
       </c>
       <c r="H37">
+        <v>31</v>
+      </c>
+      <c r="I37">
+        <v>31</v>
+      </c>
+      <c r="J37">
         <v>35</v>
-      </c>
-      <c r="I37">
-        <v>35</v>
-      </c>
-      <c r="J37">
-        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>40603</v>
+        <v>40238</v>
       </c>
       <c r="B38" s="5">
-        <v>0.13384736744847031</v>
+        <v>0.13699653964980321</v>
       </c>
       <c r="C38">
-        <v>74.77</v>
+        <v>72.459999999999994</v>
       </c>
       <c r="D38" s="6">
-        <v>1884.38</v>
+        <v>1909.1</v>
       </c>
       <c r="E38" s="3">
-        <v>12612060.31992995</v>
+        <v>9120492.836740002</v>
       </c>
       <c r="F38">
-        <v>12098119.087110005</v>
+        <v>8768072.3598799724</v>
       </c>
       <c r="G38" s="8">
-        <v>157762.78754916365</v>
+        <v>147811.68552463484</v>
       </c>
       <c r="H38">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>32</v>
+      </c>
+      <c r="J38">
         <v>36</v>
-      </c>
-      <c r="I38">
-        <v>36</v>
-      </c>
-      <c r="J38">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>40695</v>
+        <v>40330</v>
       </c>
       <c r="B39" s="5">
-        <v>0.11513214305421718</v>
+        <v>0.12668325376614642</v>
       </c>
       <c r="C39">
-        <v>75.31</v>
+        <v>72.95</v>
       </c>
       <c r="D39" s="6">
-        <v>1782.54</v>
+        <v>1925.9</v>
       </c>
       <c r="E39" s="3">
-        <v>14685540.815510042</v>
+        <v>10064936.637559984</v>
       </c>
       <c r="F39">
-        <v>13519430.619200027</v>
-      </c>
-      <c r="G39" s="7">
-        <v>165412.01753875607</v>
+        <v>9427708.6424900424</v>
+      </c>
+      <c r="G39" s="8">
+        <v>155186.83717420479</v>
       </c>
       <c r="H39">
+        <v>33</v>
+      </c>
+      <c r="I39">
+        <v>33</v>
+      </c>
+      <c r="J39">
         <v>37</v>
-      </c>
-      <c r="I39">
-        <v>37</v>
-      </c>
-      <c r="J39">
-        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>40787</v>
+        <v>40422</v>
       </c>
       <c r="B40" s="5">
-        <v>0.1064548159917265</v>
+        <v>0.12349716553779323</v>
       </c>
       <c r="C40">
-        <v>75.62</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D40" s="6">
-        <v>1836.15</v>
+        <v>1805.6</v>
       </c>
       <c r="E40" s="3">
-        <v>14390274.396400005</v>
+        <v>9720522.4951199926</v>
       </c>
       <c r="F40">
-        <v>14275423.299669962</v>
-      </c>
-      <c r="G40" s="8">
-        <v>172652.39361992312</v>
+        <v>10892965.209259972</v>
+      </c>
+      <c r="G40" s="7">
+        <v>159996.88084263631</v>
       </c>
       <c r="H40">
+        <v>34</v>
+      </c>
+      <c r="I40">
+        <v>34</v>
+      </c>
+      <c r="J40">
         <v>38</v>
-      </c>
-      <c r="I40">
-        <v>38</v>
-      </c>
-      <c r="J40">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40878</v>
+        <v>40513</v>
       </c>
       <c r="B41" s="5">
-        <v>0.10291575948104638</v>
+        <v>0.11028935924573481</v>
       </c>
       <c r="C41">
-        <v>76.19</v>
+        <v>73.45</v>
       </c>
       <c r="D41" s="6">
-        <v>1934.08</v>
+        <v>1925.86</v>
       </c>
       <c r="E41" s="3">
-        <v>15227063.578499978</v>
+        <v>10807384.431020029</v>
       </c>
       <c r="F41">
-        <v>14339596.156230006</v>
+        <v>11396809.478160018</v>
       </c>
       <c r="G41" s="8">
-        <v>188800.80129215718</v>
+        <v>177155.596458524</v>
       </c>
       <c r="H41">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>35</v>
+      </c>
+      <c r="J41">
         <v>39</v>
-      </c>
-      <c r="I41">
-        <v>39</v>
-      </c>
-      <c r="J41">
-        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>40969</v>
+        <v>40603</v>
       </c>
       <c r="B42" s="5">
-        <v>0.12242335721854693</v>
+        <v>0.13384736744847031</v>
       </c>
       <c r="C42">
-        <v>77.31</v>
+        <v>74.77</v>
       </c>
       <c r="D42" s="6">
-        <v>1766.34</v>
+        <v>1884.38</v>
       </c>
       <c r="E42" s="3">
-        <v>15497446.065460045</v>
+        <v>12612060.31992995</v>
       </c>
       <c r="F42">
-        <v>14043512.45632006</v>
-      </c>
-      <c r="G42" s="7">
-        <v>166996.88047309549</v>
+        <v>12098119.087110005</v>
+      </c>
+      <c r="G42" s="8">
+        <v>157762.78754916365</v>
       </c>
       <c r="H42">
+        <v>36</v>
+      </c>
+      <c r="I42">
+        <v>36</v>
+      </c>
+      <c r="J42">
         <v>40</v>
-      </c>
-      <c r="I42">
-        <v>40</v>
-      </c>
-      <c r="J42">
-        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>41061</v>
+        <v>40695</v>
       </c>
       <c r="B43" s="5">
-        <v>0.1151869876757201</v>
+        <v>0.11513214305421718</v>
       </c>
       <c r="C43">
-        <v>77.72</v>
+        <v>75.31</v>
       </c>
       <c r="D43" s="6">
-        <v>1792.63</v>
+        <v>1782.54</v>
       </c>
       <c r="E43" s="3">
-        <v>14977735.816669993</v>
+        <v>14685540.815510042</v>
       </c>
       <c r="F43">
-        <v>15018251.755579978</v>
-      </c>
-      <c r="G43" s="8">
-        <v>173577.62041998119</v>
+        <v>13519430.619200027</v>
+      </c>
+      <c r="G43" s="7">
+        <v>165412.01753875607</v>
       </c>
       <c r="H43">
+        <v>37</v>
+      </c>
+      <c r="I43">
+        <v>37</v>
+      </c>
+      <c r="J43">
         <v>41</v>
-      </c>
-      <c r="I43">
-        <v>41</v>
-      </c>
-      <c r="J43">
-        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>41153</v>
+        <v>40787</v>
       </c>
       <c r="B44" s="5">
-        <v>0.10891739688980516</v>
+        <v>0.1064548159917265</v>
       </c>
       <c r="C44">
-        <v>77.959999999999994</v>
+        <v>75.62</v>
       </c>
       <c r="D44" s="6">
-        <v>1803.18</v>
+        <v>1836.15</v>
       </c>
       <c r="E44" s="3">
-        <v>14458087.665089957</v>
+        <v>14390274.396400005</v>
       </c>
       <c r="F44">
-        <v>15112252.017349947</v>
+        <v>14275423.299669962</v>
       </c>
       <c r="G44" s="8">
-        <v>176900.49539803842</v>
+        <v>172652.39361992312</v>
       </c>
       <c r="H44">
+        <v>38</v>
+      </c>
+      <c r="I44">
+        <v>38</v>
+      </c>
+      <c r="J44">
         <v>42</v>
-      </c>
-      <c r="I44">
-        <v>42</v>
-      </c>
-      <c r="J44">
-        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>41244</v>
+        <v>40878</v>
       </c>
       <c r="B45" s="5">
-        <v>0.10077125778851931</v>
+        <v>0.10291575948104638</v>
       </c>
       <c r="C45">
-        <v>78.05</v>
+        <v>76.19</v>
       </c>
       <c r="D45" s="6">
-        <v>1793.94</v>
+        <v>1934.08</v>
       </c>
       <c r="E45" s="3">
-        <v>15191896.370710049</v>
+        <v>15227063.578499978</v>
       </c>
       <c r="F45">
-        <v>14873667.932340011</v>
-      </c>
-      <c r="G45" s="7">
-        <v>193940.00370888491</v>
+        <v>14339596.156230006</v>
+      </c>
+      <c r="G45" s="8">
+        <v>188800.80129215718</v>
       </c>
       <c r="H45">
+        <v>39</v>
+      </c>
+      <c r="I45">
+        <v>39</v>
+      </c>
+      <c r="J45">
         <v>43</v>
-      </c>
-      <c r="I45">
-        <v>43</v>
-      </c>
-      <c r="J45">
-        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>41334</v>
+        <v>40969</v>
       </c>
       <c r="B46" s="5">
-        <v>0.12340753509272845</v>
+        <v>0.12242335721854693</v>
       </c>
       <c r="C46">
-        <v>78.790000000000006</v>
+        <v>77.31</v>
       </c>
       <c r="D46" s="6">
-        <v>1809.89</v>
+        <v>1766.34</v>
       </c>
       <c r="E46" s="3">
-        <v>14134806.42200999</v>
+        <v>15497446.065460045</v>
       </c>
       <c r="F46">
-        <v>14170701.095259912</v>
-      </c>
-      <c r="G46" s="8">
-        <v>171244.7502044444</v>
+        <v>14043512.45632006</v>
+      </c>
+      <c r="G46" s="7">
+        <v>166996.88047309549</v>
       </c>
       <c r="H46">
+        <v>40</v>
+      </c>
+      <c r="I46">
+        <v>40</v>
+      </c>
+      <c r="J46">
         <v>44</v>
-      </c>
-      <c r="I46">
-        <v>44</v>
-      </c>
-      <c r="J46">
-        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>41426</v>
+        <v>41061</v>
       </c>
       <c r="B47" s="5">
-        <v>0.10781489378395515</v>
+        <v>0.1151869876757201</v>
       </c>
       <c r="C47">
-        <v>79.39</v>
+        <v>77.72</v>
       </c>
       <c r="D47" s="6">
-        <v>1909.5</v>
+        <v>1792.63</v>
       </c>
       <c r="E47" s="3">
-        <v>15152795.289360065</v>
+        <v>14977735.816669993</v>
       </c>
       <c r="F47">
-        <v>14659586.103619989</v>
+        <v>15018251.755579978</v>
       </c>
       <c r="G47" s="8">
-        <v>183008.77049865527</v>
+        <v>173577.62041998119</v>
       </c>
       <c r="H47">
+        <v>41</v>
+      </c>
+      <c r="I47">
+        <v>41</v>
+      </c>
+      <c r="J47">
         <v>45</v>
-      </c>
-      <c r="I47">
-        <v>45</v>
-      </c>
-      <c r="J47">
-        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>41518</v>
+        <v>41153</v>
       </c>
       <c r="B48" s="5">
-        <v>0.10046611051528406</v>
+        <v>0.10891739688980516</v>
       </c>
       <c r="C48">
-        <v>79.73</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="D48" s="6">
-        <v>1919.4</v>
+        <v>1803.18</v>
       </c>
       <c r="E48" s="3">
-        <v>14479998.465509923</v>
+        <v>14458087.665089957</v>
       </c>
       <c r="F48">
-        <v>15234391.763240039</v>
-      </c>
-      <c r="G48" s="7">
-        <v>187401.36404294043</v>
+        <v>15112252.017349947</v>
+      </c>
+      <c r="G48" s="8">
+        <v>176900.49539803842</v>
       </c>
       <c r="H48">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>42</v>
+      </c>
+      <c r="J48">
         <v>46</v>
-      </c>
-      <c r="I48">
-        <v>46</v>
-      </c>
-      <c r="J48">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>41609</v>
+        <v>41244</v>
       </c>
       <c r="B49" s="5">
-        <v>9.2254914086446455E-2</v>
+        <v>0.10077125778851931</v>
       </c>
       <c r="C49">
-        <v>79.56</v>
+        <v>78.05</v>
       </c>
       <c r="D49" s="6">
-        <v>1934.08</v>
+        <v>1793.94</v>
       </c>
       <c r="E49" s="3">
-        <v>15058770.831699941</v>
+        <v>15191896.370710049</v>
       </c>
       <c r="F49">
-        <v>15316532.113509979</v>
-      </c>
-      <c r="G49" s="8">
-        <v>206284.11525395993</v>
+        <v>14873667.932340011</v>
+      </c>
+      <c r="G49" s="7">
+        <v>193940.00370888491</v>
       </c>
       <c r="H49">
+        <v>43</v>
+      </c>
+      <c r="I49">
+        <v>43</v>
+      </c>
+      <c r="J49">
         <v>47</v>
-      </c>
-      <c r="I49">
-        <v>47</v>
-      </c>
-      <c r="J49">
-        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>41699</v>
+        <v>41334</v>
       </c>
       <c r="B50" s="5">
-        <v>0.1133998759372436</v>
+        <v>0.12340753509272845</v>
       </c>
       <c r="C50">
-        <v>80.77</v>
+        <v>78.790000000000006</v>
       </c>
       <c r="D50" s="6">
-        <v>2022.19</v>
+        <v>1809.89</v>
       </c>
       <c r="E50" s="3">
-        <v>13488455.038109967</v>
+        <v>14134806.42200999</v>
       </c>
       <c r="F50">
-        <v>14759516.421540022</v>
+        <v>14170701.095259912</v>
       </c>
       <c r="G50" s="8">
-        <v>182282.85572104307</v>
+        <v>171244.7502044444</v>
       </c>
       <c r="H50">
+        <v>44</v>
+      </c>
+      <c r="I50">
+        <v>44</v>
+      </c>
+      <c r="J50">
         <v>48</v>
-      </c>
-      <c r="I50">
-        <v>48</v>
-      </c>
-      <c r="J50">
-        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>41791</v>
+        <v>41426</v>
       </c>
       <c r="B51" s="5">
-        <v>9.9622264216509201E-2</v>
+        <v>0.10781489378395515</v>
       </c>
       <c r="C51">
-        <v>81.61</v>
+        <v>79.39</v>
       </c>
       <c r="D51" s="6">
-        <v>1888.1</v>
+        <v>1909.5</v>
       </c>
       <c r="E51" s="3">
-        <v>14517356.825800007</v>
+        <v>15152795.289360065</v>
       </c>
       <c r="F51">
-        <v>15801662.153979912</v>
-      </c>
-      <c r="G51" s="7">
-        <v>189638.37946240322</v>
+        <v>14659586.103619989</v>
+      </c>
+      <c r="G51" s="8">
+        <v>183008.77049865527</v>
       </c>
       <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <v>45</v>
+      </c>
+      <c r="J51">
         <v>49</v>
-      </c>
-      <c r="I51">
-        <v>49</v>
-      </c>
-      <c r="J51">
-        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>41883</v>
+        <v>41518</v>
       </c>
       <c r="B52" s="5">
-        <v>9.5515540393688453E-2</v>
+        <v>0.10046611051528406</v>
       </c>
       <c r="C52">
-        <v>82.01</v>
+        <v>79.73</v>
       </c>
       <c r="D52" s="6">
-        <v>1971.34</v>
+        <v>1919.4</v>
       </c>
       <c r="E52" s="3">
-        <v>14939268.497809958</v>
+        <v>14479998.465509923</v>
       </c>
       <c r="F52">
-        <v>16777452.122189891</v>
-      </c>
-      <c r="G52" s="8">
-        <v>195558.67375589258</v>
+        <v>15234391.763240039</v>
+      </c>
+      <c r="G52" s="7">
+        <v>187401.36404294043</v>
       </c>
       <c r="H52">
+        <v>46</v>
+      </c>
+      <c r="I52">
+        <v>46</v>
+      </c>
+      <c r="J52">
         <v>50</v>
-      </c>
-      <c r="I52">
-        <v>50</v>
-      </c>
-      <c r="J52">
-        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>41974</v>
+        <v>41609</v>
       </c>
       <c r="B53" s="5">
-        <v>8.9039621556905632E-2</v>
+        <v>9.2254914086446455E-2</v>
       </c>
       <c r="C53">
-        <v>82.47</v>
+        <v>79.56</v>
       </c>
       <c r="D53" s="6">
-        <v>2344.23</v>
+        <v>1934.08</v>
       </c>
       <c r="E53" s="3">
-        <v>11911674.204890015</v>
+        <v>15058770.831699941</v>
       </c>
       <c r="F53">
-        <v>16690253.011470098</v>
+        <v>15316532.113509979</v>
       </c>
       <c r="G53" s="8">
-        <v>214109.09106066119</v>
+        <v>206284.11525395993</v>
       </c>
       <c r="H53">
+        <v>47</v>
+      </c>
+      <c r="I53">
+        <v>47</v>
+      </c>
+      <c r="J53">
         <v>51</v>
-      </c>
-      <c r="I53">
-        <v>51</v>
-      </c>
-      <c r="J53">
-        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>42064</v>
+        <v>41699</v>
       </c>
       <c r="B54" s="5">
-        <v>0.10636027934841616</v>
+        <v>0.1133998759372436</v>
       </c>
       <c r="C54">
-        <v>84.45</v>
+        <v>80.77</v>
       </c>
       <c r="D54" s="6">
-        <v>2586.58</v>
+        <v>2022.19</v>
       </c>
       <c r="E54" s="3">
-        <v>9539876.3453800157</v>
+        <v>13488455.038109967</v>
       </c>
       <c r="F54">
-        <v>14113338.45437995</v>
-      </c>
-      <c r="G54" s="7">
-        <v>187841.99665840552</v>
+        <v>14759516.421540022</v>
+      </c>
+      <c r="G54" s="8">
+        <v>182282.85572104307</v>
       </c>
       <c r="H54">
+        <v>48</v>
+      </c>
+      <c r="I54">
+        <v>48</v>
+      </c>
+      <c r="J54">
         <v>52</v>
-      </c>
-      <c r="I54">
-        <v>52</v>
-      </c>
-      <c r="J54">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>42156</v>
+        <v>41791</v>
       </c>
       <c r="B55" s="5">
-        <v>9.9295053983362358E-2</v>
+        <v>9.9622264216509201E-2</v>
       </c>
       <c r="C55">
-        <v>85.21</v>
+        <v>81.61</v>
       </c>
       <c r="D55" s="6">
-        <v>2554.94</v>
+        <v>1888.1</v>
       </c>
       <c r="E55" s="3">
-        <v>9818197.554410005</v>
+        <v>14517356.825800007</v>
       </c>
       <c r="F55">
-        <v>13121908.811629988</v>
-      </c>
-      <c r="G55" s="8">
-        <v>195888.91740175121</v>
+        <v>15801662.153979912</v>
+      </c>
+      <c r="G55" s="7">
+        <v>189638.37946240322</v>
       </c>
       <c r="H55">
+        <v>49</v>
+      </c>
+      <c r="I55">
+        <v>49</v>
+      </c>
+      <c r="J55">
         <v>53</v>
-      </c>
-      <c r="I55">
-        <v>53</v>
-      </c>
-      <c r="J55">
-        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>42248</v>
+        <v>41883</v>
       </c>
       <c r="B56" s="5">
-        <v>9.5515216305070941E-2</v>
+        <v>9.5515540393688453E-2</v>
       </c>
       <c r="C56">
-        <v>86.39</v>
+        <v>82.01</v>
       </c>
       <c r="D56" s="6">
-        <v>3073.12</v>
+        <v>1971.34</v>
       </c>
       <c r="E56" s="3">
-        <v>8810397.2911099959</v>
+        <v>14939268.497809958</v>
       </c>
       <c r="F56">
-        <v>13904525.426080015</v>
+        <v>16777452.122189891</v>
       </c>
       <c r="G56" s="8">
-        <v>202886.98101223414</v>
+        <v>195558.67375589258</v>
       </c>
       <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56">
         <v>54</v>
-      </c>
-      <c r="I56">
-        <v>54</v>
-      </c>
-      <c r="J56">
-        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>42339</v>
+        <v>41974</v>
       </c>
       <c r="B57" s="5">
-        <v>8.9193694923893091E-2</v>
+        <v>8.9039621556905632E-2</v>
       </c>
       <c r="C57">
-        <v>88.05</v>
+        <v>82.47</v>
       </c>
       <c r="D57" s="6">
-        <v>3244.51</v>
+        <v>2344.23</v>
       </c>
       <c r="E57" s="3">
-        <v>7849050.4745299742</v>
+        <v>11911674.204890015</v>
       </c>
       <c r="F57">
-        <v>12917826.779890023</v>
-      </c>
-      <c r="G57" s="7">
-        <v>218074.10492760915</v>
+        <v>16690253.011470098</v>
+      </c>
+      <c r="G57" s="8">
+        <v>214109.09106066119</v>
       </c>
       <c r="H57">
+        <v>51</v>
+      </c>
+      <c r="I57">
+        <v>51</v>
+      </c>
+      <c r="J57">
         <v>55</v>
-      </c>
-      <c r="I57">
-        <v>55</v>
-      </c>
-      <c r="J57">
-        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>42430</v>
+        <v>42064</v>
       </c>
       <c r="B58" s="5">
-        <v>0.11524595751202009</v>
+        <v>0.10636027934841616</v>
       </c>
       <c r="C58">
-        <v>91.18</v>
+        <v>84.45</v>
       </c>
       <c r="D58" s="6">
-        <v>3145.26</v>
+        <v>2586.58</v>
       </c>
       <c r="E58" s="3">
-        <v>6582774.1590199992</v>
+        <v>9539876.3453800157</v>
       </c>
       <c r="F58">
-        <v>10575666.487669993</v>
-      </c>
-      <c r="G58" s="8">
-        <v>191782.13832631495</v>
+        <v>14113338.45437995</v>
+      </c>
+      <c r="G58" s="7">
+        <v>187841.99665840552</v>
       </c>
       <c r="H58">
+        <v>52</v>
+      </c>
+      <c r="I58">
+        <v>52</v>
+      </c>
+      <c r="J58">
         <v>56</v>
-      </c>
-      <c r="I58">
-        <v>56</v>
-      </c>
-      <c r="J58">
-        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>42522</v>
+        <v>42156</v>
       </c>
       <c r="B59" s="5">
-        <v>9.4518457784037793E-2</v>
+        <v>9.9295053983362358E-2</v>
       </c>
       <c r="C59">
-        <v>92.54</v>
+        <v>85.21</v>
       </c>
       <c r="D59" s="6">
-        <v>2991.68</v>
+        <v>2554.94</v>
       </c>
       <c r="E59" s="3">
-        <v>7995775.0005699992</v>
+        <v>9818197.554410005</v>
       </c>
       <c r="F59">
-        <v>10971815.998529984</v>
+        <v>13121908.811629988</v>
       </c>
       <c r="G59" s="8">
-        <v>199892.39909796359</v>
+        <v>195888.91740175121</v>
       </c>
       <c r="H59">
+        <v>53</v>
+      </c>
+      <c r="I59">
+        <v>53</v>
+      </c>
+      <c r="J59">
         <v>57</v>
-      </c>
-      <c r="I59">
-        <v>57</v>
-      </c>
-      <c r="J59">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>42614</v>
+        <v>42248</v>
       </c>
       <c r="B60" s="5">
-        <v>9.8403003194399569E-2</v>
+        <v>9.5515216305070941E-2</v>
       </c>
       <c r="C60">
-        <v>92.68</v>
+        <v>86.39</v>
       </c>
       <c r="D60" s="6">
-        <v>2921.15</v>
+        <v>3073.12</v>
       </c>
       <c r="E60" s="3">
-        <v>8109061.3513299795</v>
+        <v>8810397.2911099959</v>
       </c>
       <c r="F60">
-        <v>11523465.478219973</v>
-      </c>
-      <c r="G60" s="7">
-        <v>205900.37219315331</v>
+        <v>13904525.426080015</v>
+      </c>
+      <c r="G60" s="8">
+        <v>202886.98101223414</v>
       </c>
       <c r="H60">
+        <v>54</v>
+      </c>
+      <c r="I60">
+        <v>54</v>
+      </c>
+      <c r="J60">
         <v>58</v>
-      </c>
-      <c r="I60">
-        <v>58</v>
-      </c>
-      <c r="J60">
-        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>42705</v>
+        <v>42339</v>
       </c>
       <c r="B61" s="5">
-        <v>9.1794939493764799E-2</v>
+        <v>8.9193694923893091E-2</v>
       </c>
       <c r="C61">
-        <v>93.11</v>
+        <v>88.05</v>
       </c>
       <c r="D61" s="6">
-        <v>3009.53</v>
+        <v>3244.51</v>
       </c>
       <c r="E61" s="3">
-        <v>9080730.4703600146</v>
+        <v>7849050.4745299742</v>
       </c>
       <c r="F61">
-        <v>11818418.910499975</v>
-      </c>
-      <c r="G61" s="8">
-        <v>223914.09038256816</v>
+        <v>12917826.779890023</v>
+      </c>
+      <c r="G61" s="7">
+        <v>218074.10492760915</v>
       </c>
       <c r="H61">
+        <v>55</v>
+      </c>
+      <c r="I61">
+        <v>55</v>
+      </c>
+      <c r="J61">
         <v>59</v>
-      </c>
-      <c r="I61">
-        <v>59</v>
-      </c>
-      <c r="J61">
-        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>42795</v>
+        <v>42430</v>
       </c>
       <c r="B62" s="5">
-        <v>0.11671900943258416</v>
+        <v>0.11524595751202009</v>
       </c>
       <c r="C62">
-        <v>95.46</v>
+        <v>91.18</v>
       </c>
       <c r="D62" s="6">
-        <v>2943.49</v>
+        <v>3145.26</v>
       </c>
       <c r="E62" s="3">
-        <v>8801489.754619943</v>
+        <v>6582774.1590199992</v>
       </c>
       <c r="F62">
-        <v>11300107.799649997</v>
+        <v>10575666.487669993</v>
       </c>
       <c r="G62" s="8">
-        <v>193740.59653470648</v>
+        <v>191782.13832631495</v>
       </c>
       <c r="H62">
+        <v>56</v>
+      </c>
+      <c r="I62">
+        <v>56</v>
+      </c>
+      <c r="J62">
         <v>60</v>
-      </c>
-      <c r="I62">
-        <v>60</v>
-      </c>
-      <c r="J62">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>42887</v>
+        <v>42522</v>
       </c>
       <c r="B63" s="5">
-        <v>0.10573445872940367</v>
+        <v>9.4518457784037793E-2</v>
       </c>
       <c r="C63">
-        <v>96.23</v>
+        <v>92.54</v>
       </c>
       <c r="D63" s="6">
-        <v>2958.36</v>
+        <v>2991.68</v>
       </c>
       <c r="E63" s="3">
-        <v>9099040.1367600001</v>
+        <v>7995775.0005699992</v>
       </c>
       <c r="F63">
-        <v>11539598.599199986</v>
-      </c>
-      <c r="G63" s="7">
-        <v>202490.25456262982</v>
+        <v>10971815.998529984</v>
+      </c>
+      <c r="G63" s="8">
+        <v>199892.39909796359</v>
       </c>
       <c r="H63">
+        <v>57</v>
+      </c>
+      <c r="I63">
+        <v>57</v>
+      </c>
+      <c r="J63">
         <v>61</v>
-      </c>
-      <c r="I63">
-        <v>61</v>
-      </c>
-      <c r="J63">
-        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>42979</v>
+        <v>42614</v>
       </c>
       <c r="B64" s="5">
-        <v>0.10586684190096272</v>
+        <v>9.8403003194399569E-2</v>
       </c>
       <c r="C64">
-        <v>96.36</v>
+        <v>92.68</v>
       </c>
       <c r="D64" s="6">
-        <v>2918.49</v>
+        <v>2921.15</v>
       </c>
       <c r="E64" s="3">
-        <v>9706759.63145997</v>
+        <v>8109061.3513299795</v>
       </c>
       <c r="F64">
-        <v>11669253.76201004</v>
-      </c>
-      <c r="G64" s="8">
-        <v>209366.66421509537</v>
+        <v>11523465.478219973</v>
+      </c>
+      <c r="G64" s="7">
+        <v>205900.37219315331</v>
       </c>
       <c r="H64">
+        <v>58</v>
+      </c>
+      <c r="I64">
+        <v>58</v>
+      </c>
+      <c r="J64">
         <v>62</v>
-      </c>
-      <c r="I64">
-        <v>62</v>
-      </c>
-      <c r="J64">
-        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43070</v>
+        <v>42705</v>
       </c>
       <c r="B65" s="5">
-        <v>9.6315822247598035E-2</v>
+        <v>9.1794939493764799E-2</v>
       </c>
       <c r="C65">
-        <v>96.92</v>
+        <v>93.11</v>
       </c>
       <c r="D65" s="6">
-        <v>2991.42</v>
+        <v>3009.53</v>
       </c>
       <c r="E65" s="3">
-        <v>10414570.787549987</v>
+        <v>9080730.4703600146</v>
       </c>
       <c r="F65">
-        <v>11562097.716989933</v>
+        <v>11818418.910499975</v>
       </c>
       <c r="G65" s="8">
-        <v>227058.48468756833</v>
+        <v>223914.09038256816</v>
       </c>
       <c r="H65">
+        <v>59</v>
+      </c>
+      <c r="I65">
+        <v>59</v>
+      </c>
+      <c r="J65">
         <v>63</v>
-      </c>
-      <c r="I65">
-        <v>63</v>
-      </c>
-      <c r="J65">
-        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43160</v>
+        <v>42795</v>
       </c>
       <c r="B66" s="5">
-        <v>0.11958539104958014</v>
+        <v>0.11671900943258416</v>
       </c>
       <c r="C66">
-        <v>98.45</v>
+        <v>95.46</v>
       </c>
       <c r="D66" s="6">
-        <v>2852.46</v>
+        <v>2943.49</v>
       </c>
       <c r="E66" s="3">
-        <v>9717607.7149499916</v>
+        <v>8801489.754619943</v>
       </c>
       <c r="F66">
-        <v>11452620.621679962</v>
-      </c>
-      <c r="G66" s="7">
-        <v>197176.58134961972</v>
+        <v>11300107.799649997</v>
+      </c>
+      <c r="G66" s="8">
+        <v>193740.59653470648</v>
       </c>
       <c r="H66">
+        <v>60</v>
+      </c>
+      <c r="I66">
+        <v>60</v>
+      </c>
+      <c r="J66">
         <v>64</v>
-      </c>
-      <c r="I66">
-        <v>64</v>
-      </c>
-      <c r="J66">
-        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43252</v>
+        <v>42887</v>
       </c>
       <c r="B67" s="5">
-        <v>0.10627921322588804</v>
+        <v>0.10573445872940367</v>
       </c>
       <c r="C67">
-        <v>99.31</v>
+        <v>96.23</v>
       </c>
       <c r="D67" s="6">
-        <v>2893.22</v>
+        <v>2958.36</v>
       </c>
       <c r="E67" s="3">
-        <v>10837880.19828002</v>
+        <v>9099040.1367600001</v>
       </c>
       <c r="F67">
-        <v>12977845.502239985</v>
-      </c>
-      <c r="G67" s="8">
-        <v>208084.23827760434</v>
+        <v>11539598.599199986</v>
+      </c>
+      <c r="G67" s="7">
+        <v>202490.25456262982</v>
       </c>
       <c r="H67">
+        <v>61</v>
+      </c>
+      <c r="I67">
+        <v>61</v>
+      </c>
+      <c r="J67">
         <v>65</v>
-      </c>
-      <c r="I67">
-        <v>65</v>
-      </c>
-      <c r="J67">
-        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43344</v>
+        <v>42979</v>
       </c>
       <c r="B68" s="5">
-        <v>0.10228970301270797</v>
+        <v>0.10586684190096272</v>
       </c>
       <c r="C68">
-        <v>99.47</v>
+        <v>96.36</v>
       </c>
       <c r="D68" s="6">
-        <v>3037.8</v>
+        <v>2918.49</v>
       </c>
       <c r="E68" s="3">
-        <v>10829295.325970031</v>
+        <v>9706759.63145997</v>
       </c>
       <c r="F68">
-        <v>12975938.930169994</v>
+        <v>11669253.76201004</v>
       </c>
       <c r="G68" s="8">
-        <v>215046.21286935752</v>
+        <v>209366.66421509537</v>
       </c>
       <c r="H68">
+        <v>62</v>
+      </c>
+      <c r="I68">
+        <v>62</v>
+      </c>
+      <c r="J68">
         <v>66</v>
-      </c>
-      <c r="I68">
-        <v>66</v>
-      </c>
-      <c r="J68">
-        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43435</v>
+        <v>43070</v>
       </c>
       <c r="B69" s="5">
-        <v>0.10267071503612621</v>
+        <v>9.6315822247598035E-2</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>96.92</v>
       </c>
       <c r="D69" s="6">
-        <v>3212.48</v>
+        <v>2991.42</v>
       </c>
       <c r="E69" s="3">
-        <v>10519994.158959972</v>
+        <v>10414570.787549987</v>
       </c>
       <c r="F69">
-        <v>13824162.13005993</v>
-      </c>
-      <c r="G69" s="7">
-        <v>233292.96750341833</v>
+        <v>11562097.716989933</v>
+      </c>
+      <c r="G69" s="8">
+        <v>227058.48468756833</v>
       </c>
       <c r="H69">
+        <v>63</v>
+      </c>
+      <c r="I69">
+        <v>63</v>
+      </c>
+      <c r="J69">
         <v>67</v>
-      </c>
-      <c r="I69">
-        <v>67</v>
-      </c>
-      <c r="J69">
-        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43525</v>
+        <v>43160</v>
       </c>
       <c r="B70" s="5">
-        <v>0.12713944925633811</v>
+        <v>0.11958539104958014</v>
       </c>
       <c r="C70">
-        <v>101.62</v>
+        <v>98.45</v>
       </c>
       <c r="D70" s="6">
-        <v>3125.34</v>
+        <v>2852.46</v>
       </c>
       <c r="E70" s="3">
-        <v>9594032.0007699933</v>
+        <v>9717607.7149499916</v>
       </c>
       <c r="F70">
-        <v>12554546.41888997</v>
-      </c>
-      <c r="G70" s="8">
-        <v>203021.42808284517</v>
+        <v>11452620.621679962</v>
+      </c>
+      <c r="G70" s="7">
+        <v>197176.58134961972</v>
       </c>
       <c r="H70">
+        <v>64</v>
+      </c>
+      <c r="I70">
+        <v>64</v>
+      </c>
+      <c r="J70">
         <v>68</v>
-      </c>
-      <c r="I70">
-        <v>68</v>
-      </c>
-      <c r="J70">
-        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43617</v>
+        <v>43252</v>
       </c>
       <c r="B71" s="5">
-        <v>0.11043429820122569</v>
+        <v>0.10627921322588804</v>
       </c>
       <c r="C71">
-        <v>102.71</v>
+        <v>99.31</v>
       </c>
       <c r="D71" s="6">
-        <v>3256.02</v>
+        <v>2893.22</v>
       </c>
       <c r="E71" s="3">
-        <v>10707523.548999999</v>
+        <v>10837880.19828002</v>
       </c>
       <c r="F71">
-        <v>13300621.23036002</v>
+        <v>12977845.502239985</v>
       </c>
       <c r="G71" s="8">
-        <v>214490.6939274953</v>
+        <v>208084.23827760434</v>
       </c>
       <c r="H71">
+        <v>65</v>
+      </c>
+      <c r="I71">
+        <v>65</v>
+      </c>
+      <c r="J71">
         <v>69</v>
-      </c>
-      <c r="I71">
-        <v>69</v>
-      </c>
-      <c r="J71">
-        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43709</v>
+        <v>43344</v>
       </c>
       <c r="B72" s="5">
-        <v>0.10592944414641535</v>
+        <v>0.10228970301270797</v>
       </c>
       <c r="C72">
-        <v>103.26</v>
+        <v>99.47</v>
       </c>
       <c r="D72" s="6">
-        <v>3399.62</v>
+        <v>3037.8</v>
       </c>
       <c r="E72" s="3">
-        <v>9587439.911940001</v>
+        <v>10829295.325970031</v>
       </c>
       <c r="F72">
-        <v>13678465.218060005</v>
-      </c>
-      <c r="G72" s="7">
-        <v>222545.87120284169</v>
+        <v>12975938.930169994</v>
+      </c>
+      <c r="G72" s="8">
+        <v>215046.21286935752</v>
       </c>
       <c r="H72">
+        <v>66</v>
+      </c>
+      <c r="I72">
+        <v>66</v>
+      </c>
+      <c r="J72">
         <v>70</v>
-      </c>
-      <c r="I72">
-        <v>70</v>
-      </c>
-      <c r="J72">
-        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43800</v>
+        <v>43435</v>
       </c>
       <c r="B73" s="5">
-        <v>0.10428984835288377</v>
+        <v>0.10267071503612621</v>
       </c>
       <c r="C73">
-        <v>103.8</v>
+        <v>100</v>
       </c>
       <c r="D73" s="6">
-        <v>3383</v>
+        <v>3212.48</v>
       </c>
       <c r="E73" s="3">
-        <v>9600172.4030900002</v>
+        <v>10519994.158959972</v>
       </c>
       <c r="F73">
-        <v>13168991.404779982</v>
-      </c>
-      <c r="G73" s="8">
-        <v>241371.21655283868</v>
+        <v>13824162.13005993</v>
+      </c>
+      <c r="G73" s="7">
+        <v>233292.96750341833</v>
       </c>
       <c r="H73">
+        <v>67</v>
+      </c>
+      <c r="I73">
+        <v>67</v>
+      </c>
+      <c r="J73">
         <v>71</v>
-      </c>
-      <c r="I73">
-        <v>71</v>
-      </c>
-      <c r="J73">
-        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43891</v>
+        <v>43525</v>
       </c>
       <c r="B74" s="5">
-        <v>0.12597263432541733</v>
+        <v>0.12713944925633811</v>
       </c>
       <c r="C74">
-        <v>105.53</v>
+        <v>101.62</v>
       </c>
       <c r="D74" s="6">
-        <v>3870.01</v>
+        <v>3125.34</v>
       </c>
       <c r="E74" s="3">
-        <v>8800354.8941699304</v>
+        <v>9594032.0007699933</v>
       </c>
       <c r="F74">
-        <v>11885756.561699999</v>
+        <v>12554546.41888997</v>
       </c>
       <c r="G74" s="8">
-        <v>205500.29788914035</v>
+        <v>203021.42808284517</v>
       </c>
       <c r="H74">
+        <v>68</v>
+      </c>
+      <c r="I74">
+        <v>68</v>
+      </c>
+      <c r="J74">
         <v>72</v>
-      </c>
-      <c r="I74">
-        <v>72</v>
-      </c>
-      <c r="J74">
-        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43983</v>
+        <v>43617</v>
       </c>
       <c r="B75" s="5">
-        <v>0.24275399906285283</v>
+        <v>0.11043429820122569</v>
       </c>
       <c r="C75">
-        <v>104.97</v>
+        <v>102.71</v>
       </c>
       <c r="D75" s="6">
-        <v>3693</v>
+        <v>3256.02</v>
       </c>
       <c r="E75" s="3">
-        <v>6377268.0572699634</v>
+        <v>10707523.548999999</v>
       </c>
       <c r="F75">
-        <v>8872744.1382999998</v>
-      </c>
-      <c r="G75" s="7">
-        <v>180494.32810719276</v>
+        <v>13300621.23036002</v>
+      </c>
+      <c r="G75" s="8">
+        <v>214490.6939274953</v>
       </c>
       <c r="H75">
+        <v>69</v>
+      </c>
+      <c r="I75">
+        <v>69</v>
+      </c>
+      <c r="J75">
         <v>73</v>
-      </c>
-      <c r="I75">
-        <v>73</v>
-      </c>
-      <c r="J75">
-        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>44075</v>
+        <v>43709</v>
       </c>
       <c r="B76" s="5">
-        <v>0.20835214369915689</v>
+        <v>0.10592944414641535</v>
       </c>
       <c r="C76">
-        <v>105.29</v>
+        <v>103.26</v>
       </c>
       <c r="D76" s="6">
-        <v>3749.86</v>
+        <v>3399.62</v>
       </c>
       <c r="E76" s="3">
-        <v>7681628.6445899997</v>
+        <v>9587439.911940001</v>
       </c>
       <c r="F76">
-        <v>10693209.321599999</v>
-      </c>
-      <c r="G76" s="8">
-        <v>202513.5145748404</v>
+        <v>13678465.218060005</v>
+      </c>
+      <c r="G76" s="7">
+        <v>222545.87120284169</v>
       </c>
       <c r="H76">
+        <v>70</v>
+      </c>
+      <c r="I76">
+        <v>70</v>
+      </c>
+      <c r="J76">
         <v>74</v>
-      </c>
-      <c r="I76">
-        <v>74</v>
-      </c>
-      <c r="J76">
-        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
+        <v>43800</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.10428984835288377</v>
+      </c>
+      <c r="C77">
+        <v>103.8</v>
+      </c>
+      <c r="D77" s="6">
+        <v>3383</v>
+      </c>
+      <c r="E77" s="3">
+        <v>9600172.4030900002</v>
+      </c>
+      <c r="F77">
+        <v>13168991.404779982</v>
+      </c>
+      <c r="G77" s="8">
+        <v>241371.21655283868</v>
+      </c>
+      <c r="H77">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>71</v>
+      </c>
+      <c r="J77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43891</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.12597263432541733</v>
+      </c>
+      <c r="C78">
+        <v>105.53</v>
+      </c>
+      <c r="D78" s="6">
+        <v>3870.01</v>
+      </c>
+      <c r="E78" s="3">
+        <v>8800354.8941699304</v>
+      </c>
+      <c r="F78">
+        <v>11885756.561699999</v>
+      </c>
+      <c r="G78" s="8">
+        <v>205500.29788914035</v>
+      </c>
+      <c r="H78">
+        <v>72</v>
+      </c>
+      <c r="I78">
+        <v>72</v>
+      </c>
+      <c r="J78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.24275399906285283</v>
+      </c>
+      <c r="C79">
+        <v>104.97</v>
+      </c>
+      <c r="D79" s="6">
+        <v>3693</v>
+      </c>
+      <c r="E79" s="3">
+        <v>6377268.0572699634</v>
+      </c>
+      <c r="F79">
+        <v>8872744.1382999998</v>
+      </c>
+      <c r="G79" s="7">
+        <v>180494.32810719276</v>
+      </c>
+      <c r="H79">
+        <v>73</v>
+      </c>
+      <c r="I79">
+        <v>73</v>
+      </c>
+      <c r="J79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>44075</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.20835214369915689</v>
+      </c>
+      <c r="C80">
+        <v>105.29</v>
+      </c>
+      <c r="D80" s="6">
+        <v>3749.86</v>
+      </c>
+      <c r="E80" s="3">
+        <v>7681628.6445899997</v>
+      </c>
+      <c r="F80">
+        <v>10693209.321599999</v>
+      </c>
+      <c r="G80" s="8">
+        <v>202513.5145748404</v>
+      </c>
+      <c r="H80">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>74</v>
+      </c>
+      <c r="J80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>44166</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B81" s="5">
         <v>0.15917654736908524</v>
       </c>
-      <c r="C77">
+      <c r="C81">
         <v>105.48</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D81" s="6">
         <v>3468.5</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77">
+      <c r="E81" s="3"/>
+      <c r="F81">
         <v>12036951.985190053</v>
       </c>
-      <c r="H77">
+      <c r="H81">
         <v>75</v>
       </c>
-      <c r="I77">
+      <c r="I81">
         <v>75</v>
       </c>
-      <c r="J77">
+      <c r="J81">
         <v>79</v>
       </c>
     </row>
@@ -7774,24 +7836,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007417CAAD3D4CC5408E07FA223EE9CF92" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="de111c8a5aec253deda3dfe899a9f548">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="37337b4d-9f4b-4af9-a987-3c7751e30e6b" xmlns:ns4="95780af1-cc00-46be-b649-c4555d42f645" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59651f371eb86c92c606e999117fff74" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8011,25 +8055,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4789F0D4-1CDA-4FA4-8EC0-1495E0100034}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C2D3E66-E8BD-46C0-B729-E69E213EEE0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8047,4 +8091,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4789F0D4-1CDA-4FA4-8EC0-1495E0100034}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A94C83-3236-4398-9E54-15204658D89B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>